--- a/data/Микрофинансовые показатели.xlsx
+++ b/data/Микрофинансовые показатели.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamillaparhomenko/Desktop/ДИПЛОМ ЛЮБИМЫЙ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamillaparhomenko/Desktop/ДИПЛОМ ЛЮБИМЫЙ/Итог данные/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B0D8D06-527D-8643-930C-C24E74986E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4391E714-7121-D240-908A-ED157F798EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="840" windowWidth="26900" windowHeight="16340" xr2:uid="{0F3DF0D1-C6D6-BF41-B90B-F9AD1C2733CD}"/>
+    <workbookView xWindow="1700" yWindow="4380" windowWidth="26900" windowHeight="16340" xr2:uid="{0F3DF0D1-C6D6-BF41-B90B-F9AD1C2733CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>Показатели деятельности микрофинансовых институтов</t>
   </si>
@@ -296,6 +297,18 @@
   </si>
   <si>
     <t>30.06.2022</t>
+  </si>
+  <si>
+    <t>Количество жилищных накопительных кооперативов, ед.</t>
+  </si>
+  <si>
+    <t>Количество сельскохозяйственных кредитных потребительских кооперативов, ед.</t>
+  </si>
+  <si>
+    <t>Изменение количества сельскохозяйственных кредитных потребительских кооперативов (за квартал), ед.</t>
+  </si>
+  <si>
+    <t>Изменение количества жилищных накопительных кооперативов (за квартал), ед.</t>
   </si>
 </sst>
 </file>
@@ -444,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -499,6 +512,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,15 +830,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF3C8B5-5BEF-7E46-8276-612A047DB247}">
-  <dimension ref="A1:BR17"/>
+  <dimension ref="A1:BV17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H2" sqref="H2:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:70" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:74" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,208 +849,220 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BF1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="7" t="s">
+      <c r="BH1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BM1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BN1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BP1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="6" t="s">
+      <c r="BU1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>70</v>
       </c>
@@ -1044,209 +1072,221 @@
       <c r="C2" s="10">
         <v>-3</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="9">
+        <v>56</v>
+      </c>
+      <c r="E2" s="10">
+        <v>-3</v>
+      </c>
+      <c r="F2" s="11">
         <v>2175</v>
       </c>
-      <c r="E2" s="10">
+      <c r="G2" s="10">
         <v>-110</v>
       </c>
-      <c r="F2" s="11">
+      <c r="H2" s="9">
+        <v>999</v>
+      </c>
+      <c r="I2" s="10">
+        <v>-43</v>
+      </c>
+      <c r="J2" s="11">
         <v>4354</v>
       </c>
-      <c r="G2" s="10">
+      <c r="K2" s="10">
         <v>-263</v>
       </c>
-      <c r="H2" s="12">
+      <c r="L2" s="12">
         <v>8355092</v>
       </c>
-      <c r="I2" s="13">
+      <c r="M2" s="13">
         <v>3989</v>
       </c>
-      <c r="J2" s="13">
+      <c r="N2" s="13">
         <v>3293</v>
       </c>
-      <c r="K2" s="13">
+      <c r="O2" s="13">
         <v>8347810</v>
       </c>
-      <c r="L2" s="12">
+      <c r="P2" s="12">
         <v>10305924</v>
       </c>
-      <c r="M2" s="13">
+      <c r="Q2" s="13">
         <v>24125</v>
       </c>
-      <c r="N2" s="13">
+      <c r="R2" s="13">
         <v>15387</v>
       </c>
-      <c r="O2" s="13">
+      <c r="S2" s="13">
         <v>10266412</v>
       </c>
-      <c r="P2" s="13">
+      <c r="T2" s="13">
         <v>4200302</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="U2" s="12">
         <v>9619549</v>
       </c>
-      <c r="R2" s="13">
+      <c r="V2" s="13">
         <v>21355</v>
       </c>
-      <c r="S2" s="13">
+      <c r="W2" s="13">
         <v>13002</v>
       </c>
-      <c r="T2" s="13">
+      <c r="X2" s="13">
         <v>9585192</v>
       </c>
-      <c r="U2" s="13">
+      <c r="Y2" s="13">
         <v>3916908</v>
       </c>
-      <c r="V2" s="14">
-        <v>100</v>
-      </c>
-      <c r="W2" s="15">
+      <c r="Z2" s="14">
+        <v>100</v>
+      </c>
+      <c r="AA2" s="15">
         <v>9.5361672972831357</v>
       </c>
-      <c r="X2" s="15">
+      <c r="AB2" s="15">
         <v>8.0759573079661902</v>
       </c>
-      <c r="Y2" s="15">
+      <c r="AC2" s="15">
         <v>82.387875394750665</v>
       </c>
-      <c r="Z2" s="15">
+      <c r="AD2" s="15">
         <v>20.266676713950957</v>
       </c>
-      <c r="AA2" s="14">
+      <c r="AE2" s="14">
         <v>6.0920297773050525</v>
       </c>
-      <c r="AB2" s="15">
+      <c r="AF2" s="15">
         <v>3.9306973748665097</v>
       </c>
-      <c r="AC2" s="15">
+      <c r="AG2" s="15">
         <v>2.5310834845972519</v>
       </c>
-      <c r="AD2" s="15">
+      <c r="AH2" s="15">
         <v>6.7121841795134696</v>
       </c>
-      <c r="AE2" s="15">
+      <c r="AI2" s="15">
         <v>11.476960320595264</v>
       </c>
-      <c r="AF2" s="14">
+      <c r="AJ2" s="14">
         <v>195587.144</v>
       </c>
-      <c r="AG2" s="14">
+      <c r="AK2" s="14">
         <v>89823.508000000002</v>
       </c>
-      <c r="AH2" s="16">
+      <c r="AL2" s="16">
         <v>49408.777999999998</v>
       </c>
-      <c r="AI2" s="14">
+      <c r="AM2" s="14">
         <v>4085.6779999999999</v>
       </c>
-      <c r="AJ2" s="14">
+      <c r="AN2" s="14">
         <v>93766.664000000004</v>
       </c>
-      <c r="AK2" s="17">
+      <c r="AO2" s="17">
         <v>3780.6260000000002</v>
       </c>
-      <c r="AL2" s="17">
+      <c r="AP2" s="17">
         <v>4328.0950000000003</v>
       </c>
-      <c r="AM2" s="17">
+      <c r="AQ2" s="17">
         <v>85657.942999999999</v>
       </c>
-      <c r="AN2" s="14">
-        <v>100</v>
-      </c>
-      <c r="AO2" s="17">
+      <c r="AR2" s="14">
+        <v>100</v>
+      </c>
+      <c r="AS2" s="17">
         <v>4.0319510567209687</v>
       </c>
-      <c r="AP2" s="17">
+      <c r="AT2" s="17">
         <v>4.6158142087682679</v>
       </c>
-      <c r="AQ2" s="17">
+      <c r="AU2" s="17">
         <v>91.352234734510759</v>
       </c>
-      <c r="AR2" s="17">
+      <c r="AV2" s="17">
         <v>33.986852726252472</v>
       </c>
-      <c r="AS2" s="14">
+      <c r="AW2" s="14">
         <v>1.2308837319291444</v>
       </c>
-      <c r="AT2" s="17">
+      <c r="AX2" s="17">
         <v>-21.130533847443722</v>
       </c>
-      <c r="AU2" s="17">
+      <c r="AY2" s="17">
         <v>-16.199624068302775</v>
       </c>
-      <c r="AV2" s="17">
+      <c r="AZ2" s="17">
         <v>3.6164973521635391</v>
       </c>
-      <c r="AW2" s="17">
+      <c r="BA2" s="17">
         <v>7.476762881991128</v>
       </c>
-      <c r="AX2" s="14">
+      <c r="BB2" s="14">
         <v>11.222696769826113</v>
       </c>
-      <c r="AY2" s="17">
+      <c r="BC2" s="17">
         <v>947.76284783153676</v>
       </c>
-      <c r="AZ2" s="17">
+      <c r="BD2" s="17">
         <v>1314.3319161858487</v>
       </c>
-      <c r="BA2" s="17">
+      <c r="BE2" s="17">
         <v>10.261127529256177</v>
       </c>
-      <c r="BB2" s="17" t="s">
+      <c r="BF2" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="BC2" s="14">
+      <c r="BG2" s="14">
         <v>73902.951000000001</v>
       </c>
-      <c r="BD2" s="18">
+      <c r="BH2" s="18">
         <v>126.87810531408955</v>
       </c>
-      <c r="BE2" s="14">
+      <c r="BI2" s="14">
         <v>27928.357</v>
       </c>
-      <c r="BF2" s="14">
+      <c r="BJ2" s="14">
         <v>354.17700000000002</v>
       </c>
-      <c r="BG2" s="14">
+      <c r="BK2" s="14">
         <v>1134.896</v>
       </c>
-      <c r="BH2" s="14">
-        <v>100</v>
-      </c>
-      <c r="BI2" s="15">
+      <c r="BL2" s="14">
+        <v>100</v>
+      </c>
+      <c r="BM2" s="15">
         <v>73.834961830268028</v>
       </c>
-      <c r="BJ2" s="15">
+      <c r="BN2" s="15">
         <v>26.165038169731965</v>
       </c>
-      <c r="BK2" s="14">
+      <c r="BO2" s="14">
         <v>1.5618258878487445</v>
       </c>
-      <c r="BL2" s="15">
+      <c r="BP2" s="15">
         <v>0.50059488823896992</v>
       </c>
-      <c r="BM2" s="15">
+      <c r="BQ2" s="15">
         <v>4.6810756738550729</v>
       </c>
-      <c r="BN2" s="9">
+      <c r="BR2" s="9">
         <v>1441</v>
       </c>
-      <c r="BO2" s="9">
+      <c r="BS2" s="9">
         <v>3481</v>
       </c>
-      <c r="BP2" s="14">
+      <c r="BT2" s="14">
         <v>11643.049000000001</v>
       </c>
-      <c r="BQ2" s="15">
+      <c r="BU2" s="15">
         <v>7789.1270000000004</v>
       </c>
-      <c r="BR2" s="15">
+      <c r="BV2" s="15">
         <v>3853.922</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>72</v>
       </c>
@@ -1256,209 +1296,221 @@
       <c r="C3" s="10">
         <v>-39</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
+        <v>51</v>
+      </c>
+      <c r="E3" s="10">
+        <v>-5</v>
+      </c>
+      <c r="F3" s="11">
         <v>2114</v>
       </c>
-      <c r="E3" s="10">
+      <c r="G3" s="10">
         <v>-61</v>
       </c>
-      <c r="F3" s="11">
+      <c r="H3" s="9">
+        <v>941</v>
+      </c>
+      <c r="I3" s="10">
+        <v>-58</v>
+      </c>
+      <c r="J3" s="11">
         <v>4079</v>
       </c>
-      <c r="G3" s="10">
+      <c r="K3" s="10">
         <v>-275</v>
       </c>
-      <c r="H3" s="12">
+      <c r="L3" s="12">
         <v>8523578</v>
       </c>
-      <c r="I3" s="13">
+      <c r="M3" s="13">
         <v>4955</v>
       </c>
-      <c r="J3" s="13">
+      <c r="N3" s="13">
         <v>4867</v>
       </c>
-      <c r="K3" s="13">
+      <c r="O3" s="13">
         <v>8513756</v>
       </c>
-      <c r="L3" s="12">
+      <c r="P3" s="12">
         <v>11135377</v>
       </c>
-      <c r="M3" s="13">
+      <c r="Q3" s="13">
         <v>25866</v>
       </c>
-      <c r="N3" s="13">
+      <c r="R3" s="13">
         <v>16441</v>
       </c>
-      <c r="O3" s="13">
+      <c r="S3" s="13">
         <v>11093070</v>
       </c>
-      <c r="P3" s="13">
+      <c r="T3" s="13">
         <v>4726414</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="U3" s="12">
         <v>10351055</v>
       </c>
-      <c r="R3" s="13">
+      <c r="V3" s="13">
         <v>22561</v>
       </c>
-      <c r="S3" s="13">
+      <c r="W3" s="13">
         <v>13627</v>
       </c>
-      <c r="T3" s="13">
+      <c r="X3" s="13">
         <v>10314867</v>
       </c>
-      <c r="U3" s="13">
+      <c r="Y3" s="13">
         <v>4396420</v>
       </c>
-      <c r="V3" s="14">
-        <v>100</v>
-      </c>
-      <c r="W3" s="15">
+      <c r="Z3" s="14">
+        <v>100</v>
+      </c>
+      <c r="AA3" s="15">
         <v>9.6679365349453548</v>
       </c>
-      <c r="X3" s="15">
+      <c r="AB3" s="15">
         <v>8.3604842974343292</v>
       </c>
-      <c r="Y3" s="15">
+      <c r="AC3" s="15">
         <v>81.97157916762032</v>
       </c>
-      <c r="Z3" s="15">
+      <c r="AD3" s="15">
         <v>21.225672033504079</v>
       </c>
-      <c r="AA3" s="14">
+      <c r="AE3" s="14">
         <v>9.3567320314627231</v>
       </c>
-      <c r="AB3" s="15">
+      <c r="AF3" s="15">
         <v>10.867805900429218</v>
       </c>
-      <c r="AC3" s="15">
+      <c r="AG3" s="15">
         <v>13.209518835114364</v>
       </c>
-      <c r="AD3" s="15">
+      <c r="AH3" s="15">
         <v>8.8041653493159178</v>
       </c>
-      <c r="AE3" s="15">
+      <c r="AI3" s="15">
         <v>14.531364047357375</v>
       </c>
-      <c r="AF3" s="14">
+      <c r="AJ3" s="14">
         <v>212079.595</v>
       </c>
-      <c r="AG3" s="14">
+      <c r="AK3" s="14">
         <v>94978.198000000004</v>
       </c>
-      <c r="AH3" s="16">
+      <c r="AL3" s="16">
         <v>49407.633000000002</v>
       </c>
-      <c r="AI3" s="14">
+      <c r="AM3" s="14">
         <v>3040.6190000000001</v>
       </c>
-      <c r="AJ3" s="14">
+      <c r="AN3" s="14">
         <v>102627.951</v>
       </c>
-      <c r="AK3" s="17">
+      <c r="AO3" s="17">
         <v>4729.6369999999997</v>
       </c>
-      <c r="AL3" s="17">
+      <c r="AP3" s="17">
         <v>6056.3239999999996</v>
       </c>
-      <c r="AM3" s="17">
+      <c r="AQ3" s="17">
         <v>91841.99</v>
       </c>
-      <c r="AN3" s="14">
-        <v>100</v>
-      </c>
-      <c r="AO3" s="17">
+      <c r="AR3" s="14">
+        <v>100</v>
+      </c>
+      <c r="AS3" s="17">
         <v>4.6085271643004928</v>
       </c>
-      <c r="AP3" s="17">
+      <c r="AT3" s="17">
         <v>5.9012422453995983</v>
       </c>
-      <c r="AQ3" s="17">
+      <c r="AU3" s="17">
         <v>89.490230590299916</v>
       </c>
-      <c r="AR3" s="17">
+      <c r="AV3" s="17">
         <v>33.033175338363719</v>
       </c>
-      <c r="AS3" s="14">
+      <c r="AW3" s="14">
         <v>9.450359671535292</v>
       </c>
-      <c r="AT3" s="17">
+      <c r="AX3" s="17">
         <v>25.101954015022887</v>
       </c>
-      <c r="AU3" s="17">
+      <c r="AY3" s="17">
         <v>39.930477496450493</v>
       </c>
-      <c r="AV3" s="17">
+      <c r="AZ3" s="17">
         <v>7.2194670843309883</v>
       </c>
-      <c r="AW3" s="17">
+      <c r="BA3" s="17">
         <v>6.3791622895426725</v>
       </c>
-      <c r="AX3" s="14">
+      <c r="BB3" s="14">
         <v>12.040477719568003</v>
       </c>
-      <c r="AY3" s="17">
+      <c r="BC3" s="17">
         <v>954.51806256306759</v>
       </c>
-      <c r="AZ3" s="17">
+      <c r="BD3" s="17">
         <v>1244.3649065132524</v>
       </c>
-      <c r="BA3" s="17">
+      <c r="BE3" s="17">
         <v>10.787482046701832</v>
       </c>
-      <c r="BB3" s="17" t="s">
+      <c r="BF3" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="BC3" s="14">
+      <c r="BG3" s="14">
         <v>80277.103000000003</v>
       </c>
-      <c r="BD3" s="18">
+      <c r="BH3" s="18">
         <v>127.3800403520419</v>
       </c>
-      <c r="BE3" s="14">
+      <c r="BI3" s="14">
         <v>29714.653999999999</v>
       </c>
-      <c r="BF3" s="14">
+      <c r="BJ3" s="14">
         <v>304.29500000000002</v>
       </c>
-      <c r="BG3" s="14">
+      <c r="BK3" s="14">
         <v>832.96199999999999</v>
       </c>
-      <c r="BH3" s="14">
-        <v>100</v>
-      </c>
-      <c r="BI3" s="15">
+      <c r="BL3" s="14">
+        <v>100</v>
+      </c>
+      <c r="BM3" s="15">
         <v>75.219626444509629</v>
       </c>
-      <c r="BJ3" s="15">
+      <c r="BN3" s="15">
         <v>24.780373555490364</v>
       </c>
-      <c r="BK3" s="14">
+      <c r="BO3" s="14">
         <v>8.476279500595485</v>
       </c>
-      <c r="BL3" s="15">
+      <c r="BP3" s="15">
         <v>10.51059037427542</v>
       </c>
-      <c r="BM3" s="15">
+      <c r="BQ3" s="15">
         <v>2.7356700378960319</v>
       </c>
-      <c r="BN3" s="9">
+      <c r="BR3" s="9">
         <v>2204</v>
       </c>
-      <c r="BO3" s="9">
+      <c r="BS3" s="9">
         <v>3204</v>
       </c>
-      <c r="BP3" s="14">
+      <c r="BT3" s="14">
         <v>21683.025000000001</v>
       </c>
-      <c r="BQ3" s="15">
+      <c r="BU3" s="15">
         <v>16960.896000000001</v>
       </c>
-      <c r="BR3" s="15">
+      <c r="BV3" s="15">
         <v>4722.1289999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>73</v>
       </c>
@@ -1468,209 +1520,221 @@
       <c r="C4" s="10">
         <v>-62</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10">
+        <v>-3</v>
+      </c>
+      <c r="F4" s="11">
         <v>2063</v>
       </c>
-      <c r="E4" s="10">
+      <c r="G4" s="10">
         <v>-51</v>
       </c>
-      <c r="F4" s="11">
+      <c r="H4" s="9">
+        <v>897</v>
+      </c>
+      <c r="I4" s="10">
+        <v>-44</v>
+      </c>
+      <c r="J4" s="11">
         <v>3826</v>
       </c>
-      <c r="G4" s="10">
+      <c r="K4" s="10">
         <v>-253</v>
       </c>
-      <c r="H4" s="12">
+      <c r="L4" s="12">
         <v>8060182</v>
       </c>
-      <c r="I4" s="13">
+      <c r="M4" s="13">
         <v>4122</v>
       </c>
-      <c r="J4" s="13">
+      <c r="N4" s="13">
         <v>3686</v>
       </c>
-      <c r="K4" s="13">
+      <c r="O4" s="13">
         <v>8052374</v>
       </c>
-      <c r="L4" s="12">
+      <c r="P4" s="12">
         <v>11728000</v>
       </c>
-      <c r="M4" s="13">
+      <c r="Q4" s="13">
         <v>26702</v>
       </c>
-      <c r="N4" s="13">
+      <c r="R4" s="13">
         <v>16901</v>
       </c>
-      <c r="O4" s="13">
+      <c r="S4" s="13">
         <v>11684397</v>
       </c>
-      <c r="P4" s="13">
+      <c r="T4" s="13">
         <v>5059785</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="U4" s="12">
         <v>10938185</v>
       </c>
-      <c r="R4" s="13">
+      <c r="V4" s="13">
         <v>23069</v>
       </c>
-      <c r="S4" s="13">
+      <c r="W4" s="13">
         <v>13896</v>
       </c>
-      <c r="T4" s="13">
+      <c r="X4" s="13">
         <v>10901220</v>
       </c>
-      <c r="U4" s="13">
+      <c r="Y4" s="13">
         <v>4728539</v>
       </c>
-      <c r="V4" s="14">
-        <v>100</v>
-      </c>
-      <c r="W4" s="15">
+      <c r="Z4" s="14">
+        <v>100</v>
+      </c>
+      <c r="AA4" s="15">
         <v>9.5602790856832875</v>
       </c>
-      <c r="X4" s="15">
+      <c r="AB4" s="15">
         <v>8.5030704383986606</v>
       </c>
-      <c r="Y4" s="15">
+      <c r="AC4" s="15">
         <v>81.936650475918043</v>
       </c>
-      <c r="Z4" s="15">
+      <c r="AD4" s="15">
         <v>21.695027661540969</v>
       </c>
-      <c r="AA4" s="14">
+      <c r="AE4" s="14">
         <v>6.0513223487651979</v>
       </c>
-      <c r="AB4" s="15">
+      <c r="AF4" s="15">
         <v>4.8703862913480611</v>
       </c>
-      <c r="AC4" s="15">
+      <c r="AG4" s="15">
         <v>7.8600033126795976</v>
       </c>
-      <c r="AD4" s="15">
+      <c r="AH4" s="15">
         <v>6.0061331017047692</v>
       </c>
-      <c r="AE4" s="15">
+      <c r="AI4" s="15">
         <v>8.3963969794566431</v>
       </c>
-      <c r="AF4" s="14">
+      <c r="AJ4" s="14">
         <v>222241.046</v>
       </c>
-      <c r="AG4" s="14">
+      <c r="AK4" s="14">
         <v>105665.73299999999</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AL4" s="16">
         <v>50494.472000000002</v>
       </c>
-      <c r="AI4" s="14">
+      <c r="AM4" s="14">
         <v>3787.25</v>
       </c>
-      <c r="AJ4" s="14">
+      <c r="AN4" s="14">
         <v>102980.173</v>
       </c>
-      <c r="AK4" s="17">
+      <c r="AO4" s="17">
         <v>4959.5469999999996</v>
       </c>
-      <c r="AL4" s="17">
+      <c r="AP4" s="17">
         <v>5705.4750000000004</v>
       </c>
-      <c r="AM4" s="17">
+      <c r="AQ4" s="17">
         <v>92315.150999999998</v>
       </c>
-      <c r="AN4" s="14">
-        <v>100</v>
-      </c>
-      <c r="AO4" s="17">
+      <c r="AR4" s="14">
+        <v>100</v>
+      </c>
+      <c r="AS4" s="17">
         <v>4.8160212354663647</v>
       </c>
-      <c r="AP4" s="17">
+      <c r="AT4" s="17">
         <v>5.5403626094122025</v>
       </c>
-      <c r="AQ4" s="17">
+      <c r="AU4" s="17">
         <v>89.643616155121435</v>
       </c>
-      <c r="AR4" s="17">
+      <c r="AV4" s="17">
         <v>33.70251863919475</v>
       </c>
-      <c r="AS4" s="14">
+      <c r="AW4" s="14">
         <v>0.34320279862158909</v>
       </c>
-      <c r="AT4" s="17">
+      <c r="AX4" s="17">
         <v>4.8610495900636819</v>
       </c>
-      <c r="AU4" s="17">
+      <c r="AY4" s="17">
         <v>-5.7931015579747562</v>
       </c>
-      <c r="AV4" s="17">
+      <c r="AZ4" s="17">
         <v>0.51519027407833651</v>
       </c>
-      <c r="AW4" s="17">
+      <c r="BA4" s="17">
         <v>2.3764330251806687</v>
       </c>
-      <c r="AX4" s="14">
+      <c r="BB4" s="14">
         <v>12.776407902451831</v>
       </c>
-      <c r="AY4" s="17">
+      <c r="BC4" s="17">
         <v>1203.1894711305192</v>
       </c>
-      <c r="AZ4" s="17">
+      <c r="BD4" s="17">
         <v>1547.8771025501899</v>
       </c>
-      <c r="BA4" s="17">
+      <c r="BE4" s="17">
         <v>11.464339709010039</v>
       </c>
-      <c r="BB4" s="17" t="s">
+      <c r="BF4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="BC4" s="14">
+      <c r="BG4" s="14">
         <v>84439.021999999997</v>
       </c>
-      <c r="BD4" s="18">
+      <c r="BH4" s="18">
         <v>125.46138096687626</v>
       </c>
-      <c r="BE4" s="14">
+      <c r="BI4" s="14">
         <v>29284.909</v>
       </c>
-      <c r="BF4" s="14">
+      <c r="BJ4" s="14">
         <v>337.98500000000001</v>
       </c>
-      <c r="BG4" s="14">
+      <c r="BK4" s="14">
         <v>900.30100000000004</v>
       </c>
-      <c r="BH4" s="14">
-        <v>100</v>
-      </c>
-      <c r="BI4" s="15">
+      <c r="BL4" s="14">
+        <v>100</v>
+      </c>
+      <c r="BM4" s="15">
         <v>75.629305037806461</v>
       </c>
-      <c r="BJ4" s="15">
+      <c r="BN4" s="15">
         <v>24.370694962193543</v>
       </c>
-      <c r="BK4" s="14">
+      <c r="BO4" s="14">
         <v>0.99879081997242825</v>
       </c>
-      <c r="BL4" s="15">
+      <c r="BP4" s="15">
         <v>1.5488738834442906</v>
       </c>
-      <c r="BM4" s="15">
+      <c r="BQ4" s="15">
         <v>-0.67095973706221557</v>
       </c>
-      <c r="BN4" s="9">
+      <c r="BR4" s="9">
         <v>2691</v>
       </c>
-      <c r="BO4" s="9">
+      <c r="BS4" s="9">
         <v>3028</v>
       </c>
-      <c r="BP4" s="14">
+      <c r="BT4" s="14">
         <v>13274.377</v>
       </c>
-      <c r="BQ4" s="15">
+      <c r="BU4" s="15">
         <v>8905.6650000000009</v>
       </c>
-      <c r="BR4" s="15">
+      <c r="BV4" s="15">
         <v>4368.7120000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>74</v>
       </c>
@@ -1681,208 +1745,220 @@
         <v>-124</v>
       </c>
       <c r="D5" s="9">
+        <v>50</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9">
         <v>2058</v>
       </c>
-      <c r="E5" s="10">
+      <c r="G5" s="10">
         <v>-5</v>
       </c>
-      <c r="F5" s="9">
+      <c r="H5" s="9">
+        <v>863</v>
+      </c>
+      <c r="I5" s="10">
+        <v>-34</v>
+      </c>
+      <c r="J5" s="9">
         <v>3599</v>
       </c>
-      <c r="G5" s="10">
+      <c r="K5" s="10">
         <v>-227</v>
       </c>
-      <c r="H5" s="12">
+      <c r="L5" s="12">
         <v>8877616</v>
       </c>
-      <c r="I5" s="13">
+      <c r="M5" s="13">
         <v>6266</v>
       </c>
-      <c r="J5" s="13">
+      <c r="N5" s="13">
         <v>4513</v>
       </c>
-      <c r="K5" s="13">
+      <c r="O5" s="13">
         <v>8866837</v>
       </c>
-      <c r="L5" s="12">
+      <c r="P5" s="12">
         <v>12047921</v>
       </c>
-      <c r="M5" s="13">
+      <c r="Q5" s="13">
         <v>28165</v>
       </c>
-      <c r="N5" s="13">
+      <c r="R5" s="13">
         <v>17482</v>
       </c>
-      <c r="O5" s="13">
+      <c r="S5" s="13">
         <v>12002274</v>
       </c>
-      <c r="P5" s="13">
+      <c r="T5" s="13">
         <v>5369353</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="U5" s="12">
         <v>11425617</v>
       </c>
-      <c r="R5" s="13">
+      <c r="V5" s="13">
         <v>22957</v>
       </c>
-      <c r="S5" s="13">
+      <c r="W5" s="13">
         <v>13559</v>
       </c>
-      <c r="T5" s="13">
+      <c r="X5" s="13">
         <v>11389101</v>
       </c>
-      <c r="U5" s="13">
+      <c r="Y5" s="13">
         <v>5143825</v>
       </c>
-      <c r="V5" s="14">
-        <v>100</v>
-      </c>
-      <c r="W5" s="15">
+      <c r="Z5" s="14">
+        <v>100</v>
+      </c>
+      <c r="AA5" s="15">
         <v>10.189738935013198</v>
       </c>
-      <c r="X5" s="15">
+      <c r="AB5" s="15">
         <v>8.8901927495188282</v>
       </c>
-      <c r="Y5" s="15">
+      <c r="AC5" s="15">
         <v>80.920068787375897</v>
       </c>
-      <c r="Z5" s="15">
+      <c r="AD5" s="15">
         <v>23.345541890292235</v>
       </c>
-      <c r="AA5" s="14">
+      <c r="AE5" s="14">
         <v>5.2487447676550003</v>
       </c>
-      <c r="AB5" s="15">
+      <c r="AF5" s="15">
         <v>12.178444040014181</v>
       </c>
-      <c r="AC5" s="15">
+      <c r="AG5" s="15">
         <v>10.040441791938903</v>
       </c>
-      <c r="AD5" s="15">
+      <c r="AH5" s="15">
         <v>3.942931727319765</v>
       </c>
-      <c r="AE5" s="15">
+      <c r="AI5" s="15">
         <v>13.255858356413896</v>
       </c>
-      <c r="AF5" s="14">
+      <c r="AJ5" s="14">
         <v>229948.098</v>
       </c>
-      <c r="AG5" s="14">
+      <c r="AK5" s="14">
         <v>115104.933</v>
       </c>
-      <c r="AH5" s="16">
+      <c r="AL5" s="16">
         <v>56602.96</v>
       </c>
-      <c r="AI5" s="14">
+      <c r="AM5" s="14">
         <v>5560.8710000000001</v>
       </c>
-      <c r="AJ5" s="14">
+      <c r="AN5" s="14">
         <v>115236.22199999999</v>
       </c>
-      <c r="AK5" s="17">
+      <c r="AO5" s="17">
         <v>6679.9790000000003</v>
       </c>
-      <c r="AL5" s="17">
+      <c r="AP5" s="17">
         <v>6728.2479999999996</v>
       </c>
-      <c r="AM5" s="17">
+      <c r="AQ5" s="17">
         <v>101827.995</v>
       </c>
-      <c r="AN5" s="14">
-        <v>100</v>
-      </c>
-      <c r="AO5" s="17">
+      <c r="AR5" s="14">
+        <v>100</v>
+      </c>
+      <c r="AS5" s="17">
         <v>5.7967702203912941</v>
       </c>
-      <c r="AP5" s="17">
+      <c r="AT5" s="17">
         <v>5.8386572235941578</v>
       </c>
-      <c r="AQ5" s="17">
+      <c r="AU5" s="17">
         <v>88.364572556014551</v>
       </c>
-      <c r="AR5" s="17">
+      <c r="AV5" s="17">
         <v>36.909706220670792</v>
       </c>
-      <c r="AS5" s="14">
+      <c r="AW5" s="14">
         <v>11.901367654528983</v>
       </c>
-      <c r="AT5" s="17">
+      <c r="AX5" s="17">
         <v>34.689297228154125</v>
       </c>
-      <c r="AU5" s="17">
+      <c r="AY5" s="17">
         <v>17.926167409374315</v>
       </c>
-      <c r="AV5" s="17">
+      <c r="AZ5" s="17">
         <v>10.304748350571401</v>
       </c>
-      <c r="AW5" s="17">
+      <c r="BA5" s="17">
         <v>22.550087429270583</v>
       </c>
-      <c r="AX5" s="14">
+      <c r="BB5" s="14">
         <v>12.98053689188629</v>
       </c>
-      <c r="AY5" s="17">
+      <c r="BC5" s="17">
         <v>1066.0675071816152</v>
       </c>
-      <c r="AZ5" s="17">
+      <c r="BD5" s="17">
         <v>1490.8592953689342</v>
       </c>
-      <c r="BA5" s="17">
+      <c r="BE5" s="17">
         <v>11.484139721977522</v>
       </c>
-      <c r="BB5" s="17" t="s">
+      <c r="BF5" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="BC5" s="14">
+      <c r="BG5" s="14">
         <v>90634.687999999995</v>
       </c>
-      <c r="BD5" s="18">
+      <c r="BH5" s="18">
         <v>125.92445564266957</v>
       </c>
-      <c r="BE5" s="14">
+      <c r="BI5" s="14">
         <v>31236.188999999998</v>
       </c>
-      <c r="BF5" s="14">
+      <c r="BJ5" s="14">
         <v>359.57</v>
       </c>
-      <c r="BG5" s="14">
+      <c r="BK5" s="14">
         <v>1696.45</v>
       </c>
-      <c r="BH5" s="14">
-        <v>100</v>
-      </c>
-      <c r="BI5" s="15">
+      <c r="BL5" s="14">
+        <v>100</v>
+      </c>
+      <c r="BM5" s="15">
         <v>75.575826780051031</v>
       </c>
-      <c r="BJ5" s="15">
+      <c r="BN5" s="15">
         <v>24.424173219948955</v>
       </c>
-      <c r="BK5" s="14">
+      <c r="BO5" s="14">
         <v>-4.8512921091015127</v>
       </c>
-      <c r="BL5" s="15">
+      <c r="BP5" s="15">
         <v>-4.9185727369367331</v>
       </c>
-      <c r="BM5" s="15">
+      <c r="BQ5" s="15">
         <v>-4.6425008894182991</v>
       </c>
-      <c r="BN5" s="9">
+      <c r="BR5" s="9">
         <v>3219</v>
       </c>
-      <c r="BO5" s="9">
+      <c r="BS5" s="9">
         <v>2925</v>
       </c>
-      <c r="BP5" s="14">
+      <c r="BT5" s="14">
         <v>13155.53</v>
       </c>
-      <c r="BQ5" s="15">
+      <c r="BU5" s="15">
         <v>9542.3070000000007</v>
       </c>
-      <c r="BR5" s="15">
+      <c r="BV5" s="15">
         <v>3613.223</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>75</v>
       </c>
@@ -1893,208 +1969,220 @@
         <v>-46</v>
       </c>
       <c r="D6" s="9">
+        <v>50</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
         <v>2046</v>
       </c>
-      <c r="E6" s="10">
+      <c r="G6" s="10">
         <v>-12</v>
       </c>
-      <c r="F6" s="9">
+      <c r="H6" s="9">
+        <v>832</v>
+      </c>
+      <c r="I6" s="10">
+        <v>-31</v>
+      </c>
+      <c r="J6" s="9">
         <v>3455</v>
       </c>
-      <c r="G6" s="10">
+      <c r="K6" s="10">
         <v>-144</v>
       </c>
-      <c r="H6" s="12">
+      <c r="L6" s="12">
         <v>8232232</v>
       </c>
-      <c r="I6" s="13">
+      <c r="M6" s="13">
         <v>3422</v>
       </c>
-      <c r="J6" s="13">
+      <c r="N6" s="13">
         <v>2484</v>
       </c>
-      <c r="K6" s="13">
+      <c r="O6" s="13">
         <v>8226326</v>
       </c>
-      <c r="L6" s="12">
+      <c r="P6" s="12">
         <v>12818230</v>
       </c>
-      <c r="M6" s="13">
+      <c r="Q6" s="13">
         <v>28614</v>
       </c>
-      <c r="N6" s="13">
+      <c r="R6" s="13">
         <v>17581</v>
       </c>
-      <c r="O6" s="13">
+      <c r="S6" s="13">
         <v>12772035</v>
       </c>
-      <c r="P6" s="13">
+      <c r="T6" s="13">
         <v>5773214</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="U6" s="12">
         <v>11968648</v>
       </c>
-      <c r="R6" s="13">
+      <c r="V6" s="13">
         <v>23635</v>
       </c>
-      <c r="S6" s="13">
+      <c r="W6" s="13">
         <v>13798</v>
       </c>
-      <c r="T6" s="13">
+      <c r="X6" s="13">
         <v>11931215</v>
       </c>
-      <c r="U6" s="13">
+      <c r="Y6" s="13">
         <v>5419086</v>
       </c>
-      <c r="V6" s="14">
-        <v>100</v>
-      </c>
-      <c r="W6" s="15">
+      <c r="Z6" s="14">
+        <v>100</v>
+      </c>
+      <c r="AA6" s="15">
         <v>10.306841025700587</v>
       </c>
-      <c r="X6" s="15">
+      <c r="AB6" s="15">
         <v>8.802620075230589</v>
       </c>
-      <c r="Y6" s="15">
+      <c r="AC6" s="15">
         <v>80.890538899068829</v>
       </c>
-      <c r="Z6" s="15">
+      <c r="AD6" s="15">
         <v>22.023021968314939</v>
       </c>
-      <c r="AA6" s="14">
+      <c r="AE6" s="14">
         <v>3.3630240026104596</v>
       </c>
-      <c r="AB6" s="15">
+      <c r="AF6" s="15">
         <v>4.5508882146056973</v>
       </c>
-      <c r="AC6" s="15">
+      <c r="AG6" s="15">
         <v>2.3448485041188016</v>
       </c>
-      <c r="AD6" s="15">
+      <c r="AH6" s="15">
         <v>3.3253040822048163</v>
       </c>
-      <c r="AE6" s="15">
+      <c r="AI6" s="15">
         <v>-2.4924690539081196</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AJ6" s="14">
         <v>227943.37099999998</v>
       </c>
-      <c r="AG6" s="14">
+      <c r="AK6" s="14">
         <v>119102.20999999999</v>
       </c>
-      <c r="AH6" s="16">
+      <c r="AL6" s="16">
         <v>49362.603000000003</v>
       </c>
-      <c r="AI6" s="14">
+      <c r="AM6" s="14">
         <v>3831.205332</v>
       </c>
-      <c r="AJ6" s="14">
+      <c r="AN6" s="14">
         <v>101639.673</v>
       </c>
-      <c r="AK6" s="17">
+      <c r="AO6" s="17">
         <v>4520.2209999999995</v>
       </c>
-      <c r="AL6" s="17">
+      <c r="AP6" s="17">
         <v>4199.8819999999996</v>
       </c>
-      <c r="AM6" s="17">
+      <c r="AQ6" s="17">
         <v>92919.57</v>
       </c>
-      <c r="AN6" s="14">
-        <v>100</v>
-      </c>
-      <c r="AO6" s="17">
+      <c r="AR6" s="14">
+        <v>100</v>
+      </c>
+      <c r="AS6" s="17">
         <v>4.4472998255317098</v>
       </c>
-      <c r="AP6" s="17">
+      <c r="AT6" s="17">
         <v>4.1321286029717941</v>
       </c>
-      <c r="AQ6" s="17">
+      <c r="AU6" s="17">
         <v>91.420571571496509</v>
       </c>
-      <c r="AR6" s="17">
+      <c r="AV6" s="17">
         <v>36.458843192067341</v>
       </c>
-      <c r="AS6" s="14">
+      <c r="AW6" s="14">
         <v>-11.798850017835537</v>
       </c>
-      <c r="AT6" s="17">
+      <c r="AX6" s="17">
         <v>-32.33180822873846</v>
       </c>
-      <c r="AU6" s="17">
+      <c r="AY6" s="17">
         <v>-37.578371070745305</v>
       </c>
-      <c r="AV6" s="17">
+      <c r="AZ6" s="17">
         <v>-8.748502806129089</v>
       </c>
-      <c r="AW6" s="17">
+      <c r="BA6" s="17">
         <v>-12.876253272402627</v>
       </c>
-      <c r="AX6" s="14">
+      <c r="BB6" s="14">
         <v>12.34655109331224</v>
       </c>
-      <c r="AY6" s="17">
+      <c r="BC6" s="17">
         <v>1320.9295733489187</v>
       </c>
-      <c r="AZ6" s="17">
+      <c r="BD6" s="17">
         <v>1690.7737520128824</v>
       </c>
-      <c r="BA6" s="17">
+      <c r="BE6" s="17">
         <v>11.295391162470342</v>
       </c>
-      <c r="BB6" s="17" t="s">
+      <c r="BF6" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="BC6" s="14">
+      <c r="BG6" s="14">
         <v>86648.678</v>
       </c>
-      <c r="BD6" s="18">
+      <c r="BH6" s="18">
         <v>117.30089292302877</v>
       </c>
-      <c r="BE6" s="14">
+      <c r="BI6" s="14">
         <v>28660.876</v>
       </c>
-      <c r="BF6" s="14">
+      <c r="BJ6" s="14">
         <v>397.612978</v>
       </c>
-      <c r="BG6" s="14">
+      <c r="BK6" s="14">
         <v>868.05500000000006</v>
       </c>
-      <c r="BH6" s="14">
-        <v>100</v>
-      </c>
-      <c r="BI6" s="15">
+      <c r="BL6" s="14">
+        <v>100</v>
+      </c>
+      <c r="BM6" s="15">
         <v>76.466582392705902</v>
       </c>
-      <c r="BJ6" s="15">
+      <c r="BN6" s="15">
         <v>23.533417607294108</v>
       </c>
-      <c r="BK6" s="14">
+      <c r="BO6" s="14">
         <v>-0.3976016173095398</v>
       </c>
-      <c r="BL6" s="15">
+      <c r="BP6" s="15">
         <v>0.77633718261220785</v>
       </c>
-      <c r="BM6" s="15">
+      <c r="BQ6" s="15">
         <v>-4.0301256169674176</v>
       </c>
-      <c r="BN6" s="9">
+      <c r="BR6" s="9">
         <v>1288</v>
       </c>
-      <c r="BO6" s="9">
+      <c r="BS6" s="9">
         <v>2753</v>
       </c>
-      <c r="BP6" s="14">
+      <c r="BT6" s="14">
         <v>11027.314</v>
       </c>
-      <c r="BQ6" s="15">
+      <c r="BU6" s="15">
         <v>7433.8289999999997</v>
       </c>
-      <c r="BR6" s="15">
+      <c r="BV6" s="15">
         <v>3593.4850000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>44012</v>
       </c>
@@ -2105,208 +2193,220 @@
         <v>-68</v>
       </c>
       <c r="D7" s="9">
+        <v>48</v>
+      </c>
+      <c r="E7" s="10">
+        <v>-2</v>
+      </c>
+      <c r="F7" s="9">
         <v>2013</v>
       </c>
-      <c r="E7" s="10">
+      <c r="G7" s="10">
         <v>-33</v>
       </c>
-      <c r="F7" s="9">
+      <c r="H7" s="9">
+        <v>804</v>
+      </c>
+      <c r="I7" s="10">
+        <v>-28</v>
+      </c>
+      <c r="J7" s="9">
         <v>3372</v>
       </c>
-      <c r="G7" s="10">
+      <c r="K7" s="10">
         <v>-83</v>
       </c>
-      <c r="H7" s="12">
+      <c r="L7" s="12">
         <v>6611267</v>
       </c>
-      <c r="I7" s="13">
+      <c r="M7" s="13">
         <v>4083</v>
       </c>
-      <c r="J7" s="13">
+      <c r="N7" s="13">
         <v>3677</v>
       </c>
-      <c r="K7" s="13">
+      <c r="O7" s="13">
         <v>6603507</v>
       </c>
-      <c r="L7" s="12">
+      <c r="P7" s="12">
         <v>12198862</v>
       </c>
-      <c r="M7" s="13">
+      <c r="Q7" s="13">
         <v>29773</v>
       </c>
-      <c r="N7" s="13">
+      <c r="R7" s="13">
         <v>18953</v>
       </c>
-      <c r="O7" s="13">
+      <c r="S7" s="13">
         <v>12150136</v>
       </c>
-      <c r="P7" s="13">
+      <c r="T7" s="13">
         <v>5686520</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="U7" s="12">
         <v>11485418</v>
       </c>
-      <c r="R7" s="13">
+      <c r="V7" s="13">
         <v>24470</v>
       </c>
-      <c r="S7" s="13">
+      <c r="W7" s="13">
         <v>14829</v>
       </c>
-      <c r="T7" s="13">
+      <c r="X7" s="13">
         <v>11446119</v>
       </c>
-      <c r="U7" s="13">
+      <c r="Y7" s="13">
         <v>5379674</v>
       </c>
-      <c r="V7" s="14">
-        <v>100</v>
-      </c>
-      <c r="W7" s="15">
+      <c r="Z7" s="14">
+        <v>100</v>
+      </c>
+      <c r="AA7" s="15">
         <v>11.491647689889838</v>
       </c>
-      <c r="X7" s="15">
+      <c r="AB7" s="15">
         <v>10.362059383758027</v>
       </c>
-      <c r="Y7" s="15">
+      <c r="AC7" s="15">
         <v>78.146292926352146</v>
       </c>
-      <c r="Z7" s="15">
+      <c r="AD7" s="15">
         <v>22.414942655434352</v>
       </c>
-      <c r="AA7" s="14">
+      <c r="AE7" s="14">
         <v>-2.7893864218602737</v>
       </c>
-      <c r="AB7" s="15">
+      <c r="AF7" s="15">
         <v>8.3853064360299268</v>
       </c>
-      <c r="AC7" s="15">
+      <c r="AG7" s="15">
         <v>14.432082950240432</v>
       </c>
-      <c r="AD7" s="15">
+      <c r="AH7" s="15">
         <v>-6.0872978766224879</v>
       </c>
-      <c r="AE7" s="15">
+      <c r="AI7" s="15">
         <v>-1.0594308088813675</v>
       </c>
-      <c r="AF7" s="14">
+      <c r="AJ7" s="14">
         <v>243689.03599999999</v>
       </c>
-      <c r="AG7" s="14">
+      <c r="AK7" s="14">
         <v>142531.361</v>
       </c>
-      <c r="AH7" s="16">
+      <c r="AL7" s="16">
         <v>45840.710999999996</v>
       </c>
-      <c r="AI7" s="14">
+      <c r="AM7" s="14">
         <v>2601.2666679999998</v>
       </c>
-      <c r="AJ7" s="14">
+      <c r="AN7" s="14">
         <v>77143.464000000007</v>
       </c>
-      <c r="AK7" s="17">
+      <c r="AO7" s="17">
         <v>4707.5570000000007</v>
       </c>
-      <c r="AL7" s="17">
+      <c r="AP7" s="17">
         <v>5924.0370000000003</v>
       </c>
-      <c r="AM7" s="17">
+      <c r="AQ7" s="17">
         <v>66511.87000000001</v>
       </c>
-      <c r="AN7" s="14">
-        <v>100</v>
-      </c>
-      <c r="AO7" s="17">
+      <c r="AR7" s="14">
+        <v>100</v>
+      </c>
+      <c r="AS7" s="17">
         <v>6.1023406986235411</v>
       </c>
-      <c r="AP7" s="17">
+      <c r="AT7" s="17">
         <v>7.6792468121472997</v>
       </c>
-      <c r="AQ7" s="17">
+      <c r="AU7" s="17">
         <v>86.218412489229166</v>
       </c>
-      <c r="AR7" s="17">
+      <c r="AV7" s="17">
         <v>39.230843976619987</v>
       </c>
-      <c r="AS7" s="14">
+      <c r="AW7" s="14">
         <v>-24.101030903552779</v>
       </c>
-      <c r="AT7" s="17">
+      <c r="AX7" s="17">
         <v>4.1443991344671138</v>
       </c>
-      <c r="AU7" s="17">
+      <c r="AY7" s="17">
         <v>41.0524629025292</v>
       </c>
-      <c r="AV7" s="17">
+      <c r="AZ7" s="17">
         <v>-28.419955021315747</v>
       </c>
-      <c r="AW7" s="17">
+      <c r="BA7" s="17">
         <v>-18.330359553018404</v>
       </c>
-      <c r="AX7" s="14">
+      <c r="BB7" s="14">
         <v>11.668484119609751</v>
       </c>
-      <c r="AY7" s="17">
+      <c r="BC7" s="17">
         <v>1152.9652216507473</v>
       </c>
-      <c r="AZ7" s="17">
+      <c r="BD7" s="17">
         <v>1611.1060647266793</v>
       </c>
-      <c r="BA7" s="17">
+      <c r="BE7" s="17">
         <v>10.072204057631803</v>
       </c>
-      <c r="BB7" s="17" t="s">
+      <c r="BF7" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="BC7" s="14">
+      <c r="BG7" s="14">
         <v>73149.626000000004</v>
       </c>
-      <c r="BD7" s="18">
+      <c r="BH7" s="18">
         <v>111.88049717974478</v>
       </c>
-      <c r="BE7" s="14">
+      <c r="BI7" s="14">
         <v>26307.645</v>
       </c>
-      <c r="BF7" s="14">
+      <c r="BJ7" s="14">
         <v>370.55202199999997</v>
       </c>
-      <c r="BG7" s="14">
+      <c r="BK7" s="14">
         <v>1274.4689999999998</v>
       </c>
-      <c r="BH7" s="14">
-        <v>100</v>
-      </c>
-      <c r="BI7" s="15">
+      <c r="BL7" s="14">
+        <v>100</v>
+      </c>
+      <c r="BM7" s="15">
         <v>75.339657463601711</v>
       </c>
-      <c r="BJ7" s="15">
+      <c r="BN7" s="15">
         <v>24.660342536398286</v>
       </c>
-      <c r="BK7" s="14">
+      <c r="BO7" s="14">
         <v>-10.195645018983379</v>
       </c>
-      <c r="BL7" s="15">
+      <c r="BP7" s="15">
         <v>-11.519135139811409</v>
       </c>
-      <c r="BM7" s="15">
+      <c r="BQ7" s="15">
         <v>-5.895259581601719</v>
       </c>
-      <c r="BN7" s="9">
+      <c r="BR7" s="9">
         <v>1701</v>
       </c>
-      <c r="BO7" s="9">
+      <c r="BS7" s="9">
         <v>2485</v>
       </c>
-      <c r="BP7" s="14">
+      <c r="BT7" s="14">
         <v>10957.145</v>
       </c>
-      <c r="BQ7" s="15">
+      <c r="BU7" s="15">
         <v>8014.1560000000009</v>
       </c>
-      <c r="BR7" s="15">
+      <c r="BV7" s="15">
         <v>2942.9890000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>44104</v>
       </c>
@@ -2317,208 +2417,220 @@
         <v>-112</v>
       </c>
       <c r="D8" s="9">
+        <v>48</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
         <v>1995</v>
       </c>
-      <c r="E8" s="10">
+      <c r="G8" s="10">
         <v>-18</v>
       </c>
-      <c r="F8" s="9">
+      <c r="H8" s="9">
+        <v>782</v>
+      </c>
+      <c r="I8" s="10">
+        <v>-22</v>
+      </c>
+      <c r="J8" s="9">
         <v>3269</v>
       </c>
-      <c r="G8" s="10">
+      <c r="K8" s="10">
         <v>-103</v>
       </c>
-      <c r="H8" s="12">
+      <c r="L8" s="12">
         <v>7975470</v>
       </c>
-      <c r="I8" s="13">
+      <c r="M8" s="13">
         <v>5009</v>
       </c>
-      <c r="J8" s="13">
+      <c r="N8" s="13">
         <v>4482</v>
       </c>
-      <c r="K8" s="13">
+      <c r="O8" s="13">
         <v>7965979</v>
       </c>
-      <c r="L8" s="12">
+      <c r="P8" s="12">
         <v>12540713</v>
       </c>
-      <c r="M8" s="13">
+      <c r="Q8" s="13">
         <v>31076</v>
       </c>
-      <c r="N8" s="13">
+      <c r="R8" s="13">
         <v>20243</v>
       </c>
-      <c r="O8" s="13">
+      <c r="S8" s="13">
         <v>12489394</v>
       </c>
-      <c r="P8" s="13">
+      <c r="T8" s="13">
         <v>5912065</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="U8" s="12">
         <v>11834470</v>
       </c>
-      <c r="R8" s="13">
+      <c r="V8" s="13">
         <v>25632</v>
       </c>
-      <c r="S8" s="13">
+      <c r="W8" s="13">
         <v>15985</v>
       </c>
-      <c r="T8" s="13">
+      <c r="X8" s="13">
         <v>11792853</v>
       </c>
-      <c r="U8" s="13">
+      <c r="Y8" s="13">
         <v>5590887</v>
       </c>
-      <c r="V8" s="14">
-        <v>100</v>
-      </c>
-      <c r="W8" s="15">
+      <c r="Z8" s="14">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="15">
         <v>12.115633368858242</v>
       </c>
-      <c r="X8" s="15">
+      <c r="AB8" s="15">
         <v>11.453392899065717</v>
       </c>
-      <c r="Y8" s="15">
+      <c r="AC8" s="15">
         <v>76.430973732076041</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="AD8" s="15">
         <v>21.629078217321272</v>
       </c>
-      <c r="AA8" s="14">
+      <c r="AE8" s="14">
         <v>6.0507274641157016</v>
       </c>
-      <c r="AB8" s="15">
+      <c r="AF8" s="15">
         <v>11.809182384379934</v>
       </c>
-      <c r="AC8" s="15">
+      <c r="AG8" s="15">
         <v>17.220004623997866</v>
       </c>
-      <c r="AD8" s="15">
+      <c r="AH8" s="15">
         <v>3.7229030520533168</v>
       </c>
-      <c r="AE8" s="15">
+      <c r="AI8" s="15">
         <v>2.3326052886005755</v>
       </c>
-      <c r="AF8" s="14">
+      <c r="AJ8" s="14">
         <v>247132.62299999999</v>
       </c>
-      <c r="AG8" s="14">
+      <c r="AK8" s="14">
         <v>143832.21100000001</v>
       </c>
-      <c r="AH8" s="16">
+      <c r="AL8" s="16">
         <v>46645.747999999992</v>
       </c>
-      <c r="AI8" s="14">
+      <c r="AM8" s="14">
         <v>5148.8980000000001</v>
       </c>
-      <c r="AJ8" s="14">
+      <c r="AN8" s="14">
         <v>107231.44299999998</v>
       </c>
-      <c r="AK8" s="17">
+      <c r="AO8" s="17">
         <v>6929.4620000000004</v>
       </c>
-      <c r="AL8" s="17">
+      <c r="AP8" s="17">
         <v>8187.7839999999987</v>
       </c>
-      <c r="AM8" s="17">
+      <c r="AQ8" s="17">
         <v>92114.197000000015</v>
       </c>
-      <c r="AN8" s="14">
-        <v>100</v>
-      </c>
-      <c r="AO8" s="17">
+      <c r="AR8" s="14">
+        <v>100</v>
+      </c>
+      <c r="AS8" s="17">
         <v>6.4621549483391743</v>
       </c>
-      <c r="AP8" s="17">
+      <c r="AT8" s="17">
         <v>7.6356185936992382</v>
       </c>
-      <c r="AQ8" s="17">
+      <c r="AU8" s="17">
         <v>85.902226457961618</v>
       </c>
-      <c r="AR8" s="17">
+      <c r="AV8" s="17">
         <v>36.127060231764304</v>
       </c>
-      <c r="AS8" s="14">
+      <c r="AW8" s="14">
         <v>39.002628920059877</v>
       </c>
-      <c r="AT8" s="17">
+      <c r="AX8" s="17">
         <v>47.198685007956342</v>
       </c>
-      <c r="AU8" s="17">
+      <c r="AY8" s="17">
         <v>38.212911229285005</v>
       </c>
-      <c r="AV8" s="17">
+      <c r="AZ8" s="17">
         <v>38.492869017214517</v>
       </c>
-      <c r="AW8" s="17">
+      <c r="BA8" s="17">
         <v>28.005310065757239</v>
       </c>
-      <c r="AX8" s="14">
+      <c r="BB8" s="14">
         <v>13.445156586382994</v>
       </c>
-      <c r="AY8" s="17">
+      <c r="BC8" s="17">
         <v>1383.4022759033739</v>
       </c>
-      <c r="AZ8" s="17">
+      <c r="BD8" s="17">
         <v>1826.8148148148146</v>
       </c>
-      <c r="BA8" s="17">
+      <c r="BE8" s="17">
         <v>11.563449640025414</v>
       </c>
-      <c r="BB8" s="17" t="s">
+      <c r="BF8" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="14">
+      <c r="BG8" s="14">
         <v>84511.95199999999</v>
       </c>
-      <c r="BD8" s="18">
+      <c r="BH8" s="18">
         <v>117.07023056780717</v>
       </c>
-      <c r="BE8" s="14">
+      <c r="BI8" s="14">
         <v>27339.614000000001</v>
       </c>
-      <c r="BF8" s="14">
+      <c r="BJ8" s="14">
         <v>407.625</v>
       </c>
-      <c r="BG8" s="14">
+      <c r="BK8" s="14">
         <v>1237.1869999999999</v>
       </c>
-      <c r="BH8" s="14">
-        <v>100</v>
-      </c>
-      <c r="BI8" s="15">
+      <c r="BL8" s="14">
+        <v>100</v>
+      </c>
+      <c r="BM8" s="15">
         <v>76.24722341576269</v>
       </c>
-      <c r="BJ8" s="15">
+      <c r="BN8" s="15">
         <v>23.752776584237324</v>
       </c>
-      <c r="BK8" s="14">
+      <c r="BO8" s="14">
         <v>1.1607581093088903</v>
       </c>
-      <c r="BL8" s="15">
+      <c r="BP8" s="15">
         <v>2.3793734155857615</v>
       </c>
-      <c r="BM8" s="15">
+      <c r="BQ8" s="15">
         <v>-2.5622258524625074</v>
       </c>
-      <c r="BN8" s="9">
+      <c r="BR8" s="9">
         <v>2083</v>
       </c>
-      <c r="BO8" s="9">
+      <c r="BS8" s="9">
         <v>2385</v>
       </c>
-      <c r="BP8" s="14">
+      <c r="BT8" s="14">
         <v>13582.658000000003</v>
       </c>
-      <c r="BQ8" s="15">
+      <c r="BU8" s="15">
         <v>10440.547000000002</v>
       </c>
-      <c r="BR8" s="15">
+      <c r="BV8" s="15">
         <v>3142.1109999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>44196</v>
       </c>
@@ -2529,208 +2641,220 @@
         <v>-163</v>
       </c>
       <c r="D9" s="9">
+        <v>43</v>
+      </c>
+      <c r="E9" s="10">
+        <v>-5</v>
+      </c>
+      <c r="F9" s="9">
         <v>1971</v>
       </c>
-      <c r="E9" s="10">
+      <c r="G9" s="10">
         <v>-26</v>
       </c>
-      <c r="F9" s="9">
+      <c r="H9" s="9">
+        <v>748</v>
+      </c>
+      <c r="I9" s="10">
+        <v>-34</v>
+      </c>
+      <c r="J9" s="9">
         <v>3167</v>
       </c>
-      <c r="G9" s="10">
+      <c r="K9" s="10">
         <v>-102</v>
       </c>
-      <c r="H9" s="12">
+      <c r="L9" s="12">
         <v>8781668</v>
       </c>
-      <c r="I9" s="13">
+      <c r="M9" s="13">
         <v>5923</v>
       </c>
-      <c r="J9" s="13">
+      <c r="N9" s="13">
         <v>4890</v>
       </c>
-      <c r="K9" s="13">
+      <c r="O9" s="13">
         <v>8770855</v>
       </c>
-      <c r="L9" s="12">
+      <c r="P9" s="12">
         <v>13058717</v>
       </c>
-      <c r="M9" s="13">
+      <c r="Q9" s="13">
         <v>32663</v>
       </c>
-      <c r="N9" s="13">
+      <c r="R9" s="13">
         <v>22039</v>
       </c>
-      <c r="O9" s="13">
+      <c r="S9" s="13">
         <v>13004576</v>
       </c>
-      <c r="P9" s="13">
+      <c r="T9" s="13">
         <v>6229276</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="U9" s="12">
         <v>12423315</v>
       </c>
-      <c r="R9" s="13">
+      <c r="V9" s="13">
         <v>26469</v>
       </c>
-      <c r="S9" s="13">
+      <c r="W9" s="13">
         <v>17256</v>
       </c>
-      <c r="T9" s="13">
+      <c r="X9" s="13">
         <v>12379590</v>
       </c>
-      <c r="U9" s="13">
+      <c r="Y9" s="13">
         <v>5959778</v>
       </c>
-      <c r="V9" s="14">
-        <v>100</v>
-      </c>
-      <c r="W9" s="15">
+      <c r="Z9" s="14">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="15">
         <v>12.268489762902563</v>
       </c>
-      <c r="X9" s="15">
+      <c r="AB9" s="15">
         <v>12.154209546443315</v>
       </c>
-      <c r="Y9" s="15">
+      <c r="AC9" s="15">
         <v>75.5</v>
       </c>
-      <c r="Z9" s="15">
+      <c r="AD9" s="15">
         <v>22.142136872520116</v>
       </c>
-      <c r="AA9" s="14">
+      <c r="AE9" s="14">
         <v>10.2865287501001</v>
       </c>
-      <c r="AB9" s="15">
+      <c r="AF9" s="15">
         <v>11.677954240057332</v>
       </c>
-      <c r="AC9" s="15">
+      <c r="AG9" s="15">
         <v>17.034802908743774</v>
       </c>
-      <c r="AD9" s="15">
+      <c r="AH9" s="15">
         <v>9.054716150721287</v>
       </c>
-      <c r="AE9" s="15">
+      <c r="AI9" s="15">
         <v>12.902611486430526</v>
       </c>
-      <c r="AF9" s="14">
+      <c r="AJ9" s="14">
         <v>256709.32699999999</v>
       </c>
-      <c r="AG9" s="14">
+      <c r="AK9" s="14">
         <v>146645.31</v>
       </c>
-      <c r="AH9" s="16">
+      <c r="AL9" s="16">
         <v>46400.282999999996</v>
       </c>
-      <c r="AI9" s="14">
+      <c r="AM9" s="14">
         <v>6839.5120000000006</v>
       </c>
-      <c r="AJ9" s="14">
+      <c r="AN9" s="14">
         <v>131236.72199999998</v>
       </c>
-      <c r="AK9" s="17">
+      <c r="AO9" s="17">
         <v>8315.1990000000005</v>
       </c>
-      <c r="AL9" s="17">
+      <c r="AP9" s="17">
         <v>9694.2039999999997</v>
       </c>
-      <c r="AM9" s="17">
+      <c r="AQ9" s="17">
         <v>113227.31899999997</v>
       </c>
-      <c r="AN9" s="14">
-        <v>100</v>
-      </c>
-      <c r="AO9" s="17">
+      <c r="AR9" s="14">
+        <v>100</v>
+      </c>
+      <c r="AS9" s="17">
         <v>6.3360307033575562</v>
       </c>
-      <c r="AP9" s="17">
+      <c r="AT9" s="17">
         <v>7.3868074821314123</v>
       </c>
-      <c r="AQ9" s="17">
+      <c r="AU9" s="17">
         <v>86.277161814511032</v>
       </c>
-      <c r="AR9" s="17">
+      <c r="AV9" s="17">
         <v>37.878488004295022</v>
       </c>
-      <c r="AS9" s="14">
+      <c r="AW9" s="14">
         <v>22.386417946459968</v>
       </c>
-      <c r="AT9" s="17">
+      <c r="AX9" s="17">
         <v>19.997757401656855</v>
       </c>
-      <c r="AU9" s="17">
+      <c r="AY9" s="17">
         <v>18.398384715571403</v>
       </c>
-      <c r="AV9" s="17">
+      <c r="AZ9" s="17">
         <v>22.920594965399268</v>
       </c>
-      <c r="AW9" s="17">
+      <c r="BA9" s="17">
         <v>28.31967047231916</v>
       </c>
-      <c r="AX9" s="14">
+      <c r="BB9" s="14">
         <v>14.944395757161393</v>
       </c>
-      <c r="AY9" s="17">
+      <c r="BC9" s="17">
         <v>1403.8829984805</v>
       </c>
-      <c r="AZ9" s="17">
+      <c r="BD9" s="17">
         <v>1982.4548057259715</v>
       </c>
-      <c r="BA9" s="17">
+      <c r="BE9" s="17">
         <v>12.909496166565285</v>
       </c>
-      <c r="BB9" s="17">
+      <c r="BF9" s="17">
         <v>9.3943093832755729</v>
       </c>
-      <c r="BC9" s="14">
+      <c r="BG9" s="14">
         <v>100004.63099999999</v>
       </c>
-      <c r="BD9" s="18">
+      <c r="BH9" s="18">
         <v>121.18305590428916</v>
       </c>
-      <c r="BE9" s="14">
+      <c r="BI9" s="14">
         <v>31631.577999999994</v>
       </c>
-      <c r="BF9" s="14">
+      <c r="BJ9" s="14">
         <v>506.22700000000009</v>
       </c>
-      <c r="BG9" s="14">
+      <c r="BK9" s="14">
         <v>3949.6379999999999</v>
       </c>
-      <c r="BH9" s="14">
-        <v>100</v>
-      </c>
-      <c r="BI9" s="15">
+      <c r="BL9" s="14">
+        <v>100</v>
+      </c>
+      <c r="BM9" s="15">
         <v>78.112000015259468</v>
       </c>
-      <c r="BJ9" s="15">
+      <c r="BN9" s="15">
         <v>21.887999984740524</v>
       </c>
-      <c r="BK9" s="14">
+      <c r="BO9" s="14">
         <v>8.4527277107435026</v>
       </c>
-      <c r="BL9" s="15">
+      <c r="BP9" s="15">
         <v>11.105153592323624</v>
       </c>
-      <c r="BM9" s="15">
+      <c r="BQ9" s="15">
         <v>-6.164988504466784E-2</v>
       </c>
-      <c r="BN9" s="9">
+      <c r="BR9" s="9">
         <v>2411</v>
       </c>
-      <c r="BO9" s="9">
+      <c r="BS9" s="9">
         <v>2274</v>
       </c>
-      <c r="BP9" s="14">
+      <c r="BT9" s="14">
         <v>23354.85</v>
       </c>
-      <c r="BQ9" s="15">
+      <c r="BU9" s="15">
         <v>20509.326999999997</v>
       </c>
-      <c r="BR9" s="15">
+      <c r="BV9" s="15">
         <v>2845.5230000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>44286</v>
       </c>
@@ -2741,208 +2865,220 @@
         <v>-62</v>
       </c>
       <c r="D10" s="9">
-        <v>1969</v>
+        <v>43</v>
       </c>
       <c r="E10" s="10">
         <v>0</v>
       </c>
       <c r="F10" s="9">
+        <v>1969</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>728</v>
+      </c>
+      <c r="I10" s="10">
+        <v>-20</v>
+      </c>
+      <c r="J10" s="9">
         <v>3073</v>
       </c>
-      <c r="G10" s="10">
+      <c r="K10" s="10">
         <v>-94</v>
       </c>
-      <c r="H10" s="12">
+      <c r="L10" s="12">
         <v>9915339</v>
       </c>
-      <c r="I10" s="13">
+      <c r="M10" s="13">
         <v>3453</v>
       </c>
-      <c r="J10" s="13">
+      <c r="N10" s="13">
         <v>2702</v>
       </c>
-      <c r="K10" s="13">
+      <c r="O10" s="13">
         <v>9909184</v>
       </c>
-      <c r="L10" s="12">
+      <c r="P10" s="12">
         <v>14557571</v>
       </c>
-      <c r="M10" s="13">
+      <c r="Q10" s="13">
         <v>33442</v>
       </c>
-      <c r="N10" s="13">
+      <c r="R10" s="13">
         <v>22659</v>
       </c>
-      <c r="O10" s="13">
+      <c r="S10" s="13">
         <v>14501470</v>
       </c>
-      <c r="P10" s="13">
+      <c r="T10" s="13">
         <v>7564489</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="U10" s="12">
         <v>13847268</v>
       </c>
-      <c r="R10" s="13">
+      <c r="V10" s="13">
         <v>26713</v>
       </c>
-      <c r="S10" s="13">
+      <c r="W10" s="13">
         <v>17606</v>
       </c>
-      <c r="T10" s="13">
+      <c r="X10" s="13">
         <v>13802949</v>
       </c>
-      <c r="U10" s="13">
+      <c r="Y10" s="13">
         <v>7211149</v>
       </c>
-      <c r="V10" s="14">
-        <v>100</v>
-      </c>
-      <c r="W10" s="15">
+      <c r="Z10" s="14">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="15">
         <v>11.529182456370151</v>
       </c>
-      <c r="X10" s="15">
+      <c r="AB10" s="15">
         <v>11.297248353627772</v>
       </c>
-      <c r="Y10" s="15">
+      <c r="AC10" s="15">
         <v>77.17356919000207</v>
       </c>
-      <c r="Z10" s="15">
+      <c r="AD10" s="15">
         <v>25.813869681214957</v>
       </c>
-      <c r="AA10" s="14">
+      <c r="AE10" s="14">
         <v>7.5900140013302808</v>
       </c>
-      <c r="AB10" s="15">
+      <c r="AF10" s="15">
         <v>1.1065686059869018</v>
       </c>
-      <c r="AC10" s="15">
+      <c r="AG10" s="15">
         <v>4.1264632466786466E-3</v>
       </c>
-      <c r="AD10" s="15">
+      <c r="AH10" s="15">
         <v>9.8624231589117031</v>
       </c>
-      <c r="AE10" s="15">
+      <c r="AI10" s="15">
         <v>25.431191055334267</v>
       </c>
-      <c r="AF10" s="14">
+      <c r="AJ10" s="14">
         <v>265942.67300000001</v>
       </c>
-      <c r="AG10" s="14">
+      <c r="AK10" s="14">
         <v>152047.25900000002</v>
       </c>
-      <c r="AH10" s="16">
+      <c r="AL10" s="16">
         <v>51388.409</v>
       </c>
-      <c r="AI10" s="14">
+      <c r="AM10" s="14">
         <v>6070.4350000000004</v>
       </c>
-      <c r="AJ10" s="14">
+      <c r="AN10" s="14">
         <v>128351.32</v>
       </c>
-      <c r="AK10" s="17">
+      <c r="AO10" s="17">
         <v>4870.1859999999997</v>
       </c>
-      <c r="AL10" s="17">
+      <c r="AP10" s="17">
         <v>4805.951</v>
       </c>
-      <c r="AM10" s="17">
+      <c r="AQ10" s="17">
         <v>118675.183</v>
       </c>
-      <c r="AN10" s="14">
-        <v>100</v>
-      </c>
-      <c r="AO10" s="17">
+      <c r="AR10" s="14">
+        <v>100</v>
+      </c>
+      <c r="AS10" s="17">
         <v>3.7944183199674137</v>
       </c>
-      <c r="AP10" s="17">
+      <c r="AT10" s="17">
         <v>3.7443720874861279</v>
       </c>
-      <c r="AQ10" s="17">
+      <c r="AU10" s="17">
         <v>92.461209592546453</v>
       </c>
-      <c r="AR10" s="17">
+      <c r="AV10" s="17">
         <v>48.541337946504953</v>
       </c>
-      <c r="AS10" s="14">
+      <c r="AW10" s="14">
         <v>-2.198623949171763</v>
       </c>
-      <c r="AT10" s="17">
+      <c r="AX10" s="17">
         <v>-41.430313333451195</v>
       </c>
-      <c r="AU10" s="17">
+      <c r="AY10" s="17">
         <v>-50.424490757570183</v>
       </c>
-      <c r="AV10" s="17">
+      <c r="AZ10" s="17">
         <v>4.8114395431371415</v>
       </c>
-      <c r="AW10" s="17">
+      <c r="BA10" s="17">
         <v>25.332606887005692</v>
       </c>
-      <c r="AX10" s="14">
+      <c r="BB10" s="14">
         <v>12.944723322117378</v>
       </c>
-      <c r="AY10" s="17">
+      <c r="BC10" s="17">
         <v>1410.421662322618</v>
       </c>
-      <c r="AZ10" s="17">
+      <c r="BD10" s="17">
         <v>1778.6643227239083</v>
       </c>
-      <c r="BA10" s="17">
+      <c r="BE10" s="17">
         <v>11.976282103551615</v>
       </c>
-      <c r="BB10" s="17">
+      <c r="BF10" s="17">
         <v>9.4336387058793623</v>
       </c>
-      <c r="BC10" s="14">
+      <c r="BG10" s="14">
         <v>103244.864</v>
       </c>
-      <c r="BD10" s="18">
+      <c r="BH10" s="18">
         <v>124.31738977350001</v>
       </c>
-      <c r="BE10" s="14">
+      <c r="BI10" s="14">
         <v>33001.868999999999</v>
       </c>
-      <c r="BF10" s="14">
+      <c r="BJ10" s="14">
         <v>277.67399999999998</v>
       </c>
-      <c r="BG10" s="14">
+      <c r="BK10" s="14">
         <v>1760.1689999999999</v>
       </c>
-      <c r="BH10" s="14">
-        <v>100</v>
-      </c>
-      <c r="BI10" s="15">
+      <c r="BL10" s="14">
+        <v>100</v>
+      </c>
+      <c r="BM10" s="15">
         <v>80.144453943785663</v>
       </c>
-      <c r="BJ10" s="15">
+      <c r="BN10" s="15">
         <v>19.855546056214326</v>
       </c>
-      <c r="BK10" s="14">
+      <c r="BO10" s="14">
         <v>7.820741941894549</v>
       </c>
-      <c r="BL10" s="15">
+      <c r="BP10" s="15">
         <v>10.626209610032644</v>
       </c>
-      <c r="BM10" s="15">
+      <c r="BQ10" s="15">
         <v>-2.1911682686861056</v>
       </c>
-      <c r="BN10" s="9">
+      <c r="BR10" s="9">
         <v>871</v>
       </c>
-      <c r="BO10" s="9">
+      <c r="BS10" s="9">
         <v>2178</v>
       </c>
-      <c r="BP10" s="14">
+      <c r="BT10" s="14">
         <v>17622.584999999999</v>
       </c>
-      <c r="BQ10" s="15">
+      <c r="BU10" s="15">
         <v>15079.850999999999</v>
       </c>
-      <c r="BR10" s="15">
+      <c r="BV10" s="15">
         <v>2542.7339999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>44377</v>
       </c>
@@ -2953,208 +3089,220 @@
         <v>-22</v>
       </c>
       <c r="D11" s="9">
+        <v>47</v>
+      </c>
+      <c r="E11" s="10">
+        <v>4</v>
+      </c>
+      <c r="F11" s="9">
         <v>1937</v>
       </c>
-      <c r="E11" s="10">
+      <c r="G11" s="10">
         <v>-32</v>
       </c>
-      <c r="F11" s="9">
+      <c r="H11" s="9">
+        <v>718</v>
+      </c>
+      <c r="I11" s="10">
+        <v>-10</v>
+      </c>
+      <c r="J11" s="9">
         <v>2837</v>
       </c>
-      <c r="G11" s="10">
+      <c r="K11" s="10">
         <v>-236</v>
       </c>
-      <c r="H11" s="12">
+      <c r="L11" s="12">
         <v>11589869</v>
       </c>
-      <c r="I11" s="13">
+      <c r="M11" s="13">
         <v>4156</v>
       </c>
-      <c r="J11" s="13">
+      <c r="N11" s="13">
         <v>3772</v>
       </c>
-      <c r="K11" s="13">
+      <c r="O11" s="13">
         <v>11581941</v>
       </c>
-      <c r="L11" s="12">
+      <c r="P11" s="12">
         <v>15930620</v>
       </c>
-      <c r="M11" s="13">
+      <c r="Q11" s="13">
         <v>35134</v>
       </c>
-      <c r="N11" s="13">
+      <c r="R11" s="13">
         <v>23439</v>
       </c>
-      <c r="O11" s="13">
+      <c r="S11" s="13">
         <v>15872047</v>
       </c>
-      <c r="P11" s="13">
+      <c r="T11" s="13">
         <v>8742670</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="U11" s="12">
         <v>15173049</v>
       </c>
-      <c r="R11" s="13">
+      <c r="V11" s="13">
         <v>26937</v>
       </c>
-      <c r="S11" s="13">
+      <c r="W11" s="13">
         <v>18251</v>
       </c>
-      <c r="T11" s="13">
+      <c r="X11" s="13">
         <v>15127861</v>
       </c>
-      <c r="U11" s="13">
+      <c r="Y11" s="13">
         <v>8350228</v>
       </c>
-      <c r="V11" s="14">
-        <v>100</v>
-      </c>
-      <c r="W11" s="15">
+      <c r="Z11" s="14">
+        <v>100</v>
+      </c>
+      <c r="AA11" s="15">
         <v>10.98182539480942</v>
       </c>
-      <c r="X11" s="15">
+      <c r="AB11" s="15">
         <v>11.10781486158877</v>
       </c>
-      <c r="Y11" s="15">
+      <c r="AC11" s="15">
         <v>77.910359743601845</v>
       </c>
-      <c r="Z11" s="15">
+      <c r="AD11" s="15">
         <v>28.812228528030033</v>
       </c>
-      <c r="AA11" s="14">
+      <c r="AE11" s="14">
         <v>7.0719837019072918</v>
       </c>
-      <c r="AB11" s="15">
+      <c r="AF11" s="15">
         <v>1.9886565365736297</v>
       </c>
-      <c r="AC11" s="15">
+      <c r="AG11" s="15">
         <v>5.2765890060225917</v>
       </c>
-      <c r="AD11" s="15">
+      <c r="AH11" s="15">
         <v>8.0942200319716218</v>
       </c>
-      <c r="AE11" s="15">
+      <c r="AI11" s="15">
         <v>19.508717657075515</v>
       </c>
-      <c r="AF11" s="14">
+      <c r="AJ11" s="14">
         <v>258217.79086100007</v>
       </c>
-      <c r="AG11" s="14">
+      <c r="AK11" s="14">
         <v>155937.9023149999</v>
       </c>
-      <c r="AH11" s="16">
+      <c r="AL11" s="16">
         <v>42843.747331999992</v>
       </c>
-      <c r="AI11" s="14">
+      <c r="AM11" s="14">
         <v>7153.5236129999994</v>
       </c>
-      <c r="AJ11" s="14">
+      <c r="AN11" s="14">
         <v>153193.97835499988</v>
       </c>
-      <c r="AK11" s="17">
+      <c r="AO11" s="17">
         <v>6020.5573679999989</v>
       </c>
-      <c r="AL11" s="17">
+      <c r="AP11" s="17">
         <v>7446.0243630000023</v>
       </c>
-      <c r="AM11" s="17">
+      <c r="AQ11" s="17">
         <v>139727.39662400002</v>
       </c>
-      <c r="AN11" s="14">
-        <v>100</v>
-      </c>
-      <c r="AO11" s="17">
+      <c r="AR11" s="14">
+        <v>100</v>
+      </c>
+      <c r="AS11" s="17">
         <v>3.9300222062569752</v>
       </c>
-      <c r="AP11" s="17">
+      <c r="AT11" s="17">
         <v>4.8605202651929051</v>
       </c>
-      <c r="AQ11" s="17">
+      <c r="AU11" s="17">
         <v>91.209457528550203</v>
       </c>
-      <c r="AR11" s="17">
+      <c r="AV11" s="17">
         <v>52.490184140044924</v>
       </c>
-      <c r="AS11" s="14">
+      <c r="AW11" s="14">
         <v>19.35520285650345</v>
       </c>
-      <c r="AT11" s="17">
+      <c r="AX11" s="17">
         <v>23.62068651998095</v>
       </c>
-      <c r="AU11" s="17">
+      <c r="AY11" s="17">
         <v>54.933422396524676</v>
       </c>
-      <c r="AV11" s="17">
+      <c r="AZ11" s="17">
         <v>17.739356360630175</v>
       </c>
-      <c r="AW11" s="17">
+      <c r="BA11" s="17">
         <v>29.064769144076898</v>
       </c>
-      <c r="AX11" s="14">
+      <c r="BB11" s="14">
         <v>13.217921475643932</v>
       </c>
-      <c r="AY11" s="17">
+      <c r="BC11" s="17">
         <v>1448.6422925890276</v>
       </c>
-      <c r="AZ11" s="17">
+      <c r="BD11" s="17">
         <v>1974.025546924709</v>
       </c>
-      <c r="BA11" s="17">
+      <c r="BE11" s="17">
         <v>12.064246970693429</v>
       </c>
-      <c r="BB11" s="17">
+      <c r="BF11" s="17">
         <v>9.7995376284187774</v>
       </c>
-      <c r="BC11" s="14">
+      <c r="BG11" s="14">
         <v>123518.55709899994</v>
       </c>
-      <c r="BD11" s="18">
+      <c r="BH11" s="18">
         <v>124.1581631598702</v>
       </c>
-      <c r="BE11" s="14">
+      <c r="BI11" s="14">
         <v>38176.254298999978</v>
       </c>
-      <c r="BF11" s="14">
+      <c r="BJ11" s="14">
         <v>321.35691000000008</v>
       </c>
-      <c r="BG11" s="14">
+      <c r="BK11" s="14">
         <v>1795.3919539999993</v>
       </c>
-      <c r="BH11" s="14">
-        <v>100</v>
-      </c>
-      <c r="BI11" s="15">
+      <c r="BL11" s="14">
+        <v>100</v>
+      </c>
+      <c r="BM11" s="15">
         <v>79.583441861545055</v>
       </c>
-      <c r="BJ11" s="15">
+      <c r="BN11" s="15">
         <v>20.416558138454949</v>
       </c>
-      <c r="BK11" s="14">
+      <c r="BO11" s="14">
         <v>3.029260524105859</v>
       </c>
-      <c r="BL11" s="15">
+      <c r="BP11" s="15">
         <v>2.3080545374897232</v>
       </c>
-      <c r="BM11" s="15">
+      <c r="BQ11" s="15">
         <v>5.9403192184725118</v>
       </c>
-      <c r="BN11" s="9">
+      <c r="BR11" s="9">
         <v>1345</v>
       </c>
-      <c r="BO11" s="9">
+      <c r="BS11" s="9">
         <v>5894</v>
       </c>
-      <c r="BP11" s="14">
+      <c r="BT11" s="14">
         <v>27663.451514000004</v>
       </c>
-      <c r="BQ11" s="15">
+      <c r="BU11" s="15">
         <v>24041.672389000003</v>
       </c>
-      <c r="BR11" s="15">
+      <c r="BV11" s="15">
         <v>3621.7791250000005</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>44469</v>
       </c>
@@ -3165,208 +3313,220 @@
         <v>-17</v>
       </c>
       <c r="D12" s="9">
+        <v>47</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
         <v>1872</v>
       </c>
-      <c r="E12" s="10">
+      <c r="G12" s="10">
         <v>-65</v>
       </c>
-      <c r="F12" s="9">
+      <c r="H12" s="9">
+        <v>706</v>
+      </c>
+      <c r="I12" s="10">
+        <v>-12</v>
+      </c>
+      <c r="J12" s="9">
         <v>2230</v>
       </c>
-      <c r="G12" s="10">
+      <c r="K12" s="10">
         <v>-607</v>
       </c>
-      <c r="H12" s="12">
+      <c r="L12" s="12">
         <v>11049696</v>
       </c>
-      <c r="I12" s="13">
+      <c r="M12" s="13">
         <v>4436.0270592566158</v>
       </c>
-      <c r="J12" s="13">
+      <c r="N12" s="13">
         <v>3388.0728546844712</v>
       </c>
-      <c r="K12" s="13">
+      <c r="O12" s="13">
         <v>11041871.900086049</v>
       </c>
-      <c r="L12" s="12">
+      <c r="P12" s="12">
         <v>16714100</v>
       </c>
-      <c r="M12" s="13">
+      <c r="Q12" s="13">
         <v>35233.047890388967</v>
       </c>
-      <c r="N12" s="13">
+      <c r="R12" s="13">
         <v>23721.593012983478</v>
       </c>
-      <c r="O12" s="13">
+      <c r="S12" s="13">
         <v>16655145.359096626</v>
       </c>
-      <c r="P12" s="13">
+      <c r="T12" s="13">
         <v>9519852</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="U12" s="12">
         <v>15803758.364704475</v>
       </c>
-      <c r="R12" s="13">
+      <c r="V12" s="13">
         <v>26331.362124322877</v>
       </c>
-      <c r="S12" s="13">
+      <c r="W12" s="13">
         <v>18074.199213620312</v>
       </c>
-      <c r="T12" s="13">
+      <c r="X12" s="13">
         <v>15759352.803366536</v>
       </c>
-      <c r="U12" s="13">
+      <c r="Y12" s="13">
         <v>8980694</v>
       </c>
-      <c r="V12" s="14">
-        <v>100</v>
-      </c>
-      <c r="W12" s="15">
+      <c r="Z12" s="14">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="15">
         <v>10.40353616391875</v>
       </c>
-      <c r="X12" s="15">
+      <c r="AB12" s="15">
         <v>10.550761814735935</v>
       </c>
-      <c r="Y12" s="15">
+      <c r="AC12" s="15">
         <v>79.045702021017206</v>
       </c>
-      <c r="Z12" s="15">
+      <c r="AD12" s="15">
         <v>31.044904461641408</v>
       </c>
-      <c r="AA12" s="14">
+      <c r="AE12" s="14">
         <v>6.2359012870575548</v>
       </c>
-      <c r="AB12" s="15">
+      <c r="AF12" s="15">
         <v>0.64165120206649551</v>
       </c>
-      <c r="AC12" s="15">
+      <c r="AG12" s="15">
         <v>0.90820783568796859</v>
       </c>
-      <c r="AD12" s="15">
+      <c r="AH12" s="15">
         <v>7.7840151772700539</v>
       </c>
-      <c r="AE12" s="15">
+      <c r="AI12" s="15">
         <v>14.468181544670266</v>
       </c>
-      <c r="AF12" s="14">
+      <c r="AJ12" s="14">
         <v>277201.0774469187</v>
       </c>
-      <c r="AG12" s="14">
+      <c r="AK12" s="14">
         <v>164508.95921504253</v>
       </c>
-      <c r="AH12" s="16">
+      <c r="AL12" s="16">
         <v>45580.456442266353</v>
       </c>
-      <c r="AI12" s="14">
+      <c r="AM12" s="14">
         <v>7349.5929387149063</v>
       </c>
-      <c r="AJ12" s="14">
+      <c r="AN12" s="14">
         <v>158483.30106900004</v>
       </c>
-      <c r="AK12" s="17">
+      <c r="AO12" s="17">
         <v>6550.1963588239014</v>
       </c>
-      <c r="AL12" s="17">
+      <c r="AP12" s="17">
         <v>6510.789588415606</v>
       </c>
-      <c r="AM12" s="17">
+      <c r="AQ12" s="17">
         <v>145422.31512176036</v>
       </c>
-      <c r="AN12" s="14">
-        <v>100</v>
-      </c>
-      <c r="AO12" s="17">
+      <c r="AR12" s="14">
+        <v>100</v>
+      </c>
+      <c r="AS12" s="17">
         <v>4.1330514411559962</v>
       </c>
-      <c r="AP12" s="17">
+      <c r="AT12" s="17">
         <v>4.1081865057700657</v>
       </c>
-      <c r="AQ12" s="17">
+      <c r="AU12" s="17">
         <v>91.758762053073823</v>
       </c>
-      <c r="AR12" s="17">
+      <c r="AV12" s="17">
         <v>52.850822112503145</v>
       </c>
-      <c r="AS12" s="14">
+      <c r="AW12" s="14">
         <v>3.4526962291840713</v>
       </c>
-      <c r="AT12" s="17">
+      <c r="AX12" s="17">
         <v>8.7971753851063603</v>
       </c>
-      <c r="AU12" s="17">
+      <c r="AY12" s="17">
         <v>-12.560189558761936</v>
       </c>
-      <c r="AV12" s="17">
+      <c r="AZ12" s="17">
         <v>4.0757350636719591</v>
       </c>
-      <c r="AW12" s="17">
+      <c r="BA12" s="17">
         <v>4.1634761821346622</v>
       </c>
-      <c r="AX12" s="14">
+      <c r="BB12" s="14">
         <v>14.342774775794741</v>
       </c>
-      <c r="AY12" s="17">
+      <c r="BC12" s="17">
         <v>1476.5907131147155</v>
       </c>
-      <c r="AZ12" s="17">
+      <c r="BD12" s="17">
         <v>1921.6793344374382</v>
       </c>
-      <c r="BA12" s="17">
+      <c r="BE12" s="17">
         <v>13.170078084371465</v>
       </c>
-      <c r="BB12" s="17">
+      <c r="BF12" s="17">
         <v>10.659437441268549</v>
       </c>
-      <c r="BC12" s="14">
+      <c r="BG12" s="14">
         <v>129535.87261229407</v>
       </c>
-      <c r="BD12" s="18">
+      <c r="BH12" s="18">
         <v>123.4997113916681</v>
       </c>
-      <c r="BE12" s="14">
+      <c r="BI12" s="14">
         <v>39537.976990372103</v>
       </c>
-      <c r="BF12" s="14">
+      <c r="BJ12" s="14">
         <v>341.52349934561715</v>
       </c>
-      <c r="BG12" s="14">
+      <c r="BK12" s="14">
         <v>3204.9754665480141</v>
       </c>
-      <c r="BH12" s="14">
-        <v>100</v>
-      </c>
-      <c r="BI12" s="15">
+      <c r="BL12" s="14">
+        <v>100</v>
+      </c>
+      <c r="BM12" s="15">
         <v>80.601685692904894</v>
       </c>
-      <c r="BJ12" s="15">
+      <c r="BN12" s="15">
         <v>19.398314307095106</v>
       </c>
-      <c r="BK12" s="14">
+      <c r="BO12" s="14">
         <v>4.9797905588149893</v>
       </c>
-      <c r="BL12" s="15">
+      <c r="BP12" s="15">
         <v>6.3229722766895646</v>
       </c>
-      <c r="BM12" s="15">
+      <c r="BQ12" s="15">
         <v>-0.25591192487754988</v>
       </c>
-      <c r="BN12" s="9">
+      <c r="BR12" s="9">
         <v>1676.2977406145246</v>
       </c>
-      <c r="BO12" s="9">
+      <c r="BS12" s="9">
         <v>6340</v>
       </c>
-      <c r="BP12" s="14">
+      <c r="BT12" s="14">
         <v>21939.489366722704</v>
       </c>
-      <c r="BQ12" s="15">
+      <c r="BU12" s="15">
         <v>19620.298381722703</v>
       </c>
-      <c r="BR12" s="15">
+      <c r="BV12" s="15">
         <v>2319.1909850000002</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>44561</v>
       </c>
@@ -3377,208 +3537,220 @@
         <v>-17</v>
       </c>
       <c r="D13" s="9">
+        <v>48</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
         <v>1775</v>
       </c>
-      <c r="E13" s="10">
+      <c r="G13" s="10">
         <v>-97</v>
       </c>
-      <c r="F13" s="9">
+      <c r="H13" s="9">
+        <v>694</v>
+      </c>
+      <c r="I13" s="10">
+        <v>-12</v>
+      </c>
+      <c r="J13" s="9">
         <v>2231</v>
       </c>
-      <c r="G13" s="10">
+      <c r="K13" s="10">
         <v>1</v>
       </c>
-      <c r="H13" s="12">
+      <c r="L13" s="12">
         <v>13239083</v>
       </c>
-      <c r="I13" s="13">
+      <c r="M13" s="13">
         <v>4795.9729407433842</v>
       </c>
-      <c r="J13" s="13">
+      <c r="N13" s="13">
         <v>3488.9271453155288</v>
       </c>
-      <c r="K13" s="13">
+      <c r="O13" s="13">
         <v>13230798.099913951</v>
       </c>
-      <c r="L13" s="12">
+      <c r="P13" s="12">
         <v>17865609</v>
       </c>
-      <c r="M13" s="13">
+      <c r="Q13" s="13">
         <v>34132</v>
       </c>
-      <c r="N13" s="13">
+      <c r="R13" s="13">
         <v>23645</v>
       </c>
-      <c r="O13" s="13">
+      <c r="S13" s="13">
         <v>17807832</v>
       </c>
-      <c r="P13" s="13">
+      <c r="T13" s="13">
         <v>10663952</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="U13" s="12">
         <v>16735819</v>
       </c>
-      <c r="R13" s="13">
+      <c r="V13" s="13">
         <v>26687</v>
       </c>
-      <c r="S13" s="13">
+      <c r="W13" s="13">
         <v>17992</v>
       </c>
-      <c r="T13" s="13">
+      <c r="X13" s="13">
         <v>16691140</v>
       </c>
-      <c r="U13" s="13">
+      <c r="Y13" s="13">
         <v>9933915</v>
       </c>
-      <c r="V13" s="14">
-        <v>100</v>
-      </c>
-      <c r="W13" s="15">
+      <c r="Z13" s="14">
+        <v>100</v>
+      </c>
+      <c r="AA13" s="15">
         <v>9.5836278291656729</v>
       </c>
-      <c r="X13" s="15">
+      <c r="AB13" s="15">
         <v>9.4970945283574952</v>
       </c>
-      <c r="Y13" s="15">
+      <c r="AC13" s="15">
         <v>80.919277642173284</v>
       </c>
-      <c r="Z13" s="15">
+      <c r="AD13" s="15">
         <v>33.176557944392854</v>
       </c>
-      <c r="AA13" s="14">
+      <c r="AE13" s="14">
         <v>8.1038865758428216</v>
       </c>
-      <c r="AB13" s="15">
+      <c r="AF13" s="15">
         <v>-0.41583943137162294</v>
       </c>
-      <c r="AC13" s="15">
+      <c r="AG13" s="15">
         <v>-2.6920664383027981</v>
       </c>
-      <c r="AD13" s="15">
+      <c r="AH13" s="15">
         <v>10.666211930191217</v>
       </c>
-      <c r="AE13" s="15">
+      <c r="AI13" s="15">
         <v>15.526683660082231</v>
       </c>
-      <c r="AF13" s="14">
+      <c r="AJ13" s="14">
         <v>301012.65461900004</v>
       </c>
-      <c r="AG13" s="14">
+      <c r="AK13" s="14">
         <v>171552.16477400006</v>
       </c>
-      <c r="AH13" s="16">
+      <c r="AL13" s="16">
         <v>56497.056838733726</v>
       </c>
-      <c r="AI13" s="14">
+      <c r="AM13" s="14">
         <v>8614.4373054050957</v>
       </c>
-      <c r="AJ13" s="14">
+      <c r="AN13" s="14">
         <v>191013.71818599949</v>
       </c>
-      <c r="AK13" s="17">
+      <c r="AO13" s="17">
         <v>7120.4825441760931</v>
       </c>
-      <c r="AL13" s="17">
+      <c r="AP13" s="17">
         <v>7164.8545635844021</v>
       </c>
-      <c r="AM13" s="17">
+      <c r="AQ13" s="17">
         <v>176728.38107823936</v>
       </c>
-      <c r="AN13" s="14">
-        <v>100</v>
-      </c>
-      <c r="AO13" s="17">
+      <c r="AR13" s="14">
+        <v>100</v>
+      </c>
+      <c r="AS13" s="17">
         <v>3.7277335951559918</v>
       </c>
-      <c r="AP13" s="17">
+      <c r="AT13" s="17">
         <v>3.750963350500109</v>
       </c>
-      <c r="AQ13" s="17">
+      <c r="AU13" s="17">
         <v>92.521303054344088</v>
       </c>
-      <c r="AR13" s="17">
+      <c r="AV13" s="17">
         <v>53.834957293416622</v>
       </c>
-      <c r="AS13" s="14">
+      <c r="AW13" s="14">
         <v>20.526085018153715</v>
       </c>
-      <c r="AT13" s="17">
+      <c r="AX13" s="17">
         <v>8.7063983140589052</v>
       </c>
-      <c r="AU13" s="17">
+      <c r="AY13" s="17">
         <v>10.045862583741737</v>
       </c>
-      <c r="AV13" s="17">
+      <c r="AZ13" s="17">
         <v>21.527690526909016</v>
       </c>
-      <c r="AW13" s="17">
+      <c r="BA13" s="17">
         <v>22.770401298260801</v>
       </c>
-      <c r="AX13" s="14">
+      <c r="BB13" s="14">
         <v>14.428017271740005</v>
       </c>
-      <c r="AY13" s="17">
+      <c r="BC13" s="17">
         <v>1484.6794659088309</v>
       </c>
-      <c r="AZ13" s="17">
+      <c r="BD13" s="17">
         <v>2053.5982166335643</v>
       </c>
-      <c r="BA13" s="17">
+      <c r="BE13" s="17">
         <v>13.357348494297463</v>
       </c>
-      <c r="BB13" s="17">
+      <c r="BF13" s="17">
         <v>10.560619604651054</v>
       </c>
-      <c r="BC13" s="14">
+      <c r="BG13" s="14">
         <v>151507.42644170616</v>
       </c>
-      <c r="BD13" s="18">
+      <c r="BH13" s="18">
         <v>124.2682092548655</v>
       </c>
-      <c r="BE13" s="14">
+      <c r="BI13" s="14">
         <v>43301.470163627964</v>
       </c>
-      <c r="BF13" s="14">
+      <c r="BJ13" s="14">
         <v>377.02135565438238</v>
       </c>
-      <c r="BG13" s="14">
+      <c r="BK13" s="14">
         <v>1937.6442914519882</v>
       </c>
-      <c r="BH13" s="14">
-        <v>100</v>
-      </c>
-      <c r="BI13" s="15">
+      <c r="BL13" s="14">
+        <v>100</v>
+      </c>
+      <c r="BM13" s="15">
         <v>84.425254905416693</v>
       </c>
-      <c r="BJ13" s="15">
+      <c r="BN13" s="15">
         <v>15.574745094583303</v>
       </c>
-      <c r="BK13" s="14">
+      <c r="BO13" s="14">
         <v>18.389632451026429</v>
       </c>
-      <c r="BL13" s="15">
+      <c r="BP13" s="15">
         <v>24.00577992770603</v>
       </c>
-      <c r="BM13" s="15">
+      <c r="BQ13" s="15">
         <v>-4.9459495255355534</v>
       </c>
-      <c r="BN13" s="9">
+      <c r="BR13" s="9">
         <v>2006</v>
       </c>
-      <c r="BO13" s="9">
+      <c r="BS13" s="9">
         <v>6297</v>
       </c>
-      <c r="BP13" s="14">
+      <c r="BT13" s="14">
         <v>39288.758353277313</v>
       </c>
-      <c r="BQ13" s="15">
+      <c r="BU13" s="15">
         <v>36218.586885277313</v>
       </c>
-      <c r="BR13" s="15">
+      <c r="BV13" s="15">
         <v>3070.1714680000005</v>
       </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>44651</v>
       </c>
@@ -3589,208 +3761,220 @@
         <v>13</v>
       </c>
       <c r="D14" s="9">
+        <v>48</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
         <v>1706</v>
       </c>
-      <c r="E14" s="10">
+      <c r="G14" s="10">
         <v>-69</v>
       </c>
-      <c r="F14" s="9">
+      <c r="H14" s="9">
+        <v>679</v>
+      </c>
+      <c r="I14" s="10">
+        <v>-15</v>
+      </c>
+      <c r="J14" s="9">
         <v>2174</v>
       </c>
-      <c r="G14" s="10">
+      <c r="K14" s="10">
         <v>-57</v>
       </c>
-      <c r="H14" s="12">
+      <c r="L14" s="12">
         <v>13035097</v>
       </c>
-      <c r="I14" s="13">
+      <c r="M14" s="13">
         <v>3320.5420895301804</v>
       </c>
-      <c r="J14" s="13">
+      <c r="N14" s="13">
         <v>2629.5696009303065</v>
       </c>
-      <c r="K14" s="13">
+      <c r="O14" s="13">
         <v>13029146.888309538</v>
       </c>
-      <c r="L14" s="12">
+      <c r="P14" s="12">
         <v>19378333</v>
       </c>
-      <c r="M14" s="13">
+      <c r="Q14" s="13">
         <v>34912.070809761433</v>
       </c>
-      <c r="N14" s="13">
+      <c r="R14" s="13">
         <v>24131.970732491831</v>
       </c>
-      <c r="O14" s="13">
+      <c r="S14" s="13">
         <v>19319288.958457738</v>
       </c>
-      <c r="P14" s="13">
+      <c r="T14" s="13">
         <v>12214913</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="U14" s="12">
         <v>18353117.62520903</v>
       </c>
-      <c r="R14" s="13">
+      <c r="V14" s="13">
         <v>27059.899225377347</v>
       </c>
-      <c r="S14" s="13">
+      <c r="W14" s="13">
         <v>18040.594129448935</v>
       </c>
-      <c r="T14" s="13">
+      <c r="X14" s="13">
         <v>18308017.131854203</v>
       </c>
-      <c r="U14" s="13">
+      <c r="Y14" s="13">
         <v>11563707</v>
       </c>
-      <c r="V14" s="14">
-        <v>100</v>
-      </c>
-      <c r="W14" s="15">
+      <c r="Z14" s="14">
+        <v>100</v>
+      </c>
+      <c r="AA14" s="15">
         <v>9.3125114602254122</v>
       </c>
-      <c r="X14" s="15">
+      <c r="AB14" s="15">
         <v>9.044690511999292</v>
       </c>
-      <c r="Y14" s="15">
+      <c r="AC14" s="15">
         <v>81.642798027483181</v>
       </c>
-      <c r="Z14" s="15">
+      <c r="AD14" s="15">
         <v>36.339647509107273</v>
       </c>
-      <c r="AA14" s="14">
+      <c r="AE14" s="14">
         <v>3.911695335669596</v>
       </c>
-      <c r="AB14" s="15">
+      <c r="AF14" s="15">
         <v>0.97208185818276061</v>
       </c>
-      <c r="AC14" s="15">
+      <c r="AG14" s="15">
         <v>-1.0382467941132623</v>
       </c>
-      <c r="AD14" s="15">
+      <c r="AH14" s="15">
         <v>4.8407969297288744</v>
       </c>
-      <c r="AE14" s="15">
+      <c r="AI14" s="15">
         <v>13.81875078484982</v>
       </c>
-      <c r="AF14" s="14">
+      <c r="AJ14" s="14">
         <v>308030.37143345416</v>
       </c>
-      <c r="AG14" s="14">
+      <c r="AK14" s="14">
         <v>176126.55762251336</v>
       </c>
-      <c r="AH14" s="16">
+      <c r="AL14" s="16">
         <v>58601.492649706561</v>
       </c>
-      <c r="AI14" s="14">
+      <c r="AM14" s="14">
         <v>4931.3810000000003</v>
       </c>
-      <c r="AJ14" s="14">
+      <c r="AN14" s="14">
         <v>175606.97393000004</v>
       </c>
-      <c r="AK14" s="17">
+      <c r="AO14" s="17">
         <v>5367.9814423559783</v>
       </c>
-      <c r="AL14" s="17">
+      <c r="AP14" s="17">
         <v>5424.6579103012173</v>
       </c>
-      <c r="AM14" s="17">
+      <c r="AQ14" s="17">
         <v>164814.33457734284</v>
       </c>
-      <c r="AN14" s="14">
-        <v>100</v>
-      </c>
-      <c r="AO14" s="17">
+      <c r="AR14" s="14">
+        <v>100</v>
+      </c>
+      <c r="AS14" s="17">
         <v>3.0568156390507291</v>
       </c>
-      <c r="AP14" s="17">
+      <c r="AT14" s="17">
         <v>3.0890902501762714</v>
       </c>
-      <c r="AQ14" s="17">
+      <c r="AU14" s="17">
         <v>93.854094110773005</v>
       </c>
-      <c r="AR14" s="17">
+      <c r="AV14" s="17">
         <v>61.390790172133777</v>
       </c>
-      <c r="AS14" s="14">
+      <c r="AW14" s="14">
         <v>-8.0657789410691123</v>
       </c>
-      <c r="AT14" s="17">
+      <c r="AX14" s="17">
         <v>-24.612111481875644</v>
       </c>
-      <c r="AU14" s="17">
+      <c r="AY14" s="17">
         <v>-24.287955014855278</v>
       </c>
-      <c r="AV14" s="17">
+      <c r="AZ14" s="17">
         <v>-6.7414449383894066</v>
       </c>
-      <c r="AW14" s="17">
+      <c r="BA14" s="17">
         <v>4.8373539874168703</v>
       </c>
-      <c r="AX14" s="14">
+      <c r="BB14" s="14">
         <v>13.471857856523817</v>
       </c>
-      <c r="AY14" s="17">
+      <c r="BC14" s="17">
         <v>1616.5979221529722</v>
       </c>
-      <c r="AZ14" s="17">
+      <c r="BD14" s="17">
         <v>2062.9451710964586</v>
       </c>
-      <c r="BA14" s="17">
+      <c r="BE14" s="17">
         <v>12.649664324931608</v>
       </c>
-      <c r="BB14" s="17">
+      <c r="BF14" s="17">
         <v>10.504020165429303</v>
       </c>
-      <c r="BC14" s="14">
+      <c r="BG14" s="14">
         <v>148813.41604432321</v>
       </c>
-      <c r="BD14" s="18">
+      <c r="BH14" s="18">
         <v>118.00479996890637</v>
       </c>
-      <c r="BE14" s="14">
+      <c r="BI14" s="14">
         <v>44073.740452497106</v>
       </c>
-      <c r="BF14" s="14">
+      <c r="BJ14" s="14">
         <v>400.73537037354157</v>
       </c>
-      <c r="BG14" s="14">
+      <c r="BK14" s="14">
         <v>3605.4637883126697</v>
       </c>
-      <c r="BH14" s="14">
-        <v>100</v>
-      </c>
-      <c r="BI14" s="15">
+      <c r="BL14" s="14">
+        <v>100</v>
+      </c>
+      <c r="BM14" s="15">
         <v>84.598633731847912</v>
       </c>
-      <c r="BJ14" s="15">
+      <c r="BN14" s="15">
         <v>15.401366268152087</v>
       </c>
-      <c r="BK14" s="14">
+      <c r="BO14" s="14">
         <v>0.54671883735672999</v>
       </c>
-      <c r="BL14" s="15">
+      <c r="BP14" s="15">
         <v>0.75320529846438777</v>
       </c>
-      <c r="BM14" s="15">
+      <c r="BQ14" s="15">
         <v>-0.57257216918393805</v>
       </c>
-      <c r="BN14" s="9">
+      <c r="BR14" s="9">
         <v>848.8331517813225</v>
       </c>
-      <c r="BO14" s="9">
+      <c r="BS14" s="9">
         <v>5925</v>
       </c>
-      <c r="BP14" s="14">
+      <c r="BT14" s="14">
         <v>21532.503208870949</v>
       </c>
-      <c r="BQ14" s="15">
+      <c r="BU14" s="15">
         <v>18362.855940870948</v>
       </c>
-      <c r="BR14" s="15">
+      <c r="BV14" s="15">
         <v>3169.6472679999997</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>76</v>
       </c>
@@ -3801,208 +3985,220 @@
         <v>-21</v>
       </c>
       <c r="D15" s="9">
+        <v>46</v>
+      </c>
+      <c r="E15" s="10">
+        <v>-2</v>
+      </c>
+      <c r="F15" s="9">
         <v>1627</v>
       </c>
-      <c r="E15" s="10">
+      <c r="G15" s="10">
         <v>-79</v>
       </c>
-      <c r="F15" s="9">
+      <c r="H15" s="9">
+        <v>664</v>
+      </c>
+      <c r="I15" s="10">
+        <v>-15</v>
+      </c>
+      <c r="J15" s="9">
         <v>2093</v>
       </c>
-      <c r="G15" s="10">
+      <c r="K15" s="10">
         <v>-81</v>
       </c>
-      <c r="H15" s="12">
+      <c r="L15" s="12">
         <v>13158369</v>
       </c>
-      <c r="I15" s="13">
+      <c r="M15" s="13">
         <v>5539.4579104698196</v>
       </c>
-      <c r="J15" s="13">
+      <c r="N15" s="13">
         <v>4186.4303990696935</v>
       </c>
-      <c r="K15" s="13">
+      <c r="O15" s="13">
         <v>13148643.111690462</v>
       </c>
-      <c r="L15" s="12">
+      <c r="P15" s="12">
         <v>20015193</v>
       </c>
-      <c r="M15" s="13">
+      <c r="Q15" s="13">
         <v>36351</v>
       </c>
-      <c r="N15" s="13">
+      <c r="R15" s="13">
         <v>25169</v>
       </c>
-      <c r="O15" s="13">
+      <c r="S15" s="13">
         <v>19953673</v>
       </c>
-      <c r="P15" s="13">
+      <c r="T15" s="13">
         <v>13157886</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="U15" s="12">
         <v>18976663</v>
       </c>
-      <c r="R15" s="13">
+      <c r="V15" s="13">
         <v>28394</v>
       </c>
-      <c r="S15" s="13">
+      <c r="W15" s="13">
         <v>19089</v>
       </c>
-      <c r="T15" s="13">
+      <c r="X15" s="13">
         <v>18929180</v>
       </c>
-      <c r="U15" s="13">
+      <c r="Y15" s="13">
         <v>12476399</v>
       </c>
-      <c r="V15" s="14">
-        <v>100</v>
-      </c>
-      <c r="W15" s="15">
+      <c r="Z15" s="14">
+        <v>100</v>
+      </c>
+      <c r="AA15" s="15">
         <v>9.8182416404349109</v>
       </c>
-      <c r="X15" s="15">
+      <c r="AB15" s="15">
         <v>9.7251511824365302</v>
       </c>
-      <c r="Y15" s="15">
+      <c r="AC15" s="15">
         <v>80.456607176839782</v>
       </c>
-      <c r="Z15" s="15">
+      <c r="AD15" s="15">
         <v>39.588181108756665</v>
       </c>
-      <c r="AA15" s="14">
+      <c r="AE15" s="14">
         <v>1.1725377177504326</v>
       </c>
-      <c r="AB15" s="15">
+      <c r="AF15" s="15">
         <v>6.6668671422869474</v>
       </c>
-      <c r="AC15" s="15">
+      <c r="AG15" s="15">
         <v>8.7840676815368557</v>
       </c>
-      <c r="AD15" s="15">
+      <c r="AH15" s="15">
         <v>-0.29740135191217432</v>
       </c>
-      <c r="AE15" s="15">
+      <c r="AI15" s="15">
         <v>10.216719779657858</v>
       </c>
-      <c r="AF15" s="14">
+      <c r="AJ15" s="14">
         <v>306838.53754300019</v>
       </c>
-      <c r="AG15" s="14">
+      <c r="AK15" s="14">
         <v>188270.54689700023</v>
       </c>
-      <c r="AH15" s="16">
+      <c r="AL15" s="16">
         <v>60701.981970293447</v>
       </c>
-      <c r="AI15" s="14">
+      <c r="AM15" s="14">
         <v>8958.1379779999988</v>
       </c>
-      <c r="AJ15" s="14">
+      <c r="AN15" s="14">
         <v>171351.93384100019</v>
       </c>
-      <c r="AK15" s="17">
+      <c r="AO15" s="17">
         <v>8950.1568096440242</v>
       </c>
-      <c r="AL15" s="17">
+      <c r="AP15" s="17">
         <v>9813.2458076987859</v>
       </c>
-      <c r="AM15" s="17">
+      <c r="AQ15" s="17">
         <v>152588.53122365719</v>
       </c>
-      <c r="AN15" s="14">
-        <v>100</v>
-      </c>
-      <c r="AO15" s="17">
+      <c r="AR15" s="14">
+        <v>100</v>
+      </c>
+      <c r="AS15" s="17">
         <v>5.2232598775039198</v>
       </c>
-      <c r="AP15" s="17">
+      <c r="AT15" s="17">
         <v>5.7269536373045149</v>
       </c>
-      <c r="AQ15" s="17">
+      <c r="AU15" s="17">
         <v>89.049786485191447</v>
       </c>
-      <c r="AR15" s="17">
+      <c r="AV15" s="17">
         <v>64.871777602548704</v>
       </c>
-      <c r="AS15" s="14">
+      <c r="AW15" s="14">
         <v>-2.4230473276624975</v>
       </c>
-      <c r="AT15" s="17">
+      <c r="AX15" s="17">
         <v>66.73226064127094</v>
       </c>
-      <c r="AU15" s="17">
+      <c r="AY15" s="17">
         <v>80.900730884132031</v>
       </c>
-      <c r="AV15" s="17">
+      <c r="AZ15" s="17">
         <v>-7.4179247727681252</v>
       </c>
-      <c r="AW15" s="17">
+      <c r="BA15" s="17">
         <v>3.1097719241864219</v>
       </c>
-      <c r="AX15" s="14">
+      <c r="BB15" s="14">
         <v>13.022277596942311</v>
       </c>
-      <c r="AY15" s="17">
+      <c r="BC15" s="17">
         <v>1615.7098680590809</v>
       </c>
-      <c r="AZ15" s="17">
+      <c r="BD15" s="17">
         <v>2344.0604219478919</v>
       </c>
-      <c r="BA15" s="17">
+      <c r="BE15" s="17">
         <v>11.604888042629334</v>
       </c>
-      <c r="BB15" s="17">
+      <c r="BF15" s="17">
         <v>10.584274432425792</v>
       </c>
-      <c r="BC15" s="14">
+      <c r="BG15" s="14">
         <v>153896.79995967692</v>
       </c>
-      <c r="BD15" s="18">
+      <c r="BH15" s="18">
         <v>114.61750857011556</v>
       </c>
-      <c r="BE15" s="14">
+      <c r="BI15" s="14">
         <v>45463.207433502917</v>
       </c>
-      <c r="BF15" s="14">
+      <c r="BJ15" s="14">
         <v>501.0601306264582</v>
       </c>
-      <c r="BG15" s="14">
+      <c r="BK15" s="14">
         <v>1878.1481816873302</v>
       </c>
-      <c r="BH15" s="14">
-        <v>100</v>
-      </c>
-      <c r="BI15" s="15">
+      <c r="BL15" s="14">
+        <v>100</v>
+      </c>
+      <c r="BM15" s="15">
         <v>82.949241979541881</v>
       </c>
-      <c r="BJ15" s="15">
+      <c r="BN15" s="15">
         <v>17.050758020458112</v>
       </c>
-      <c r="BK15" s="14">
+      <c r="BO15" s="14">
         <v>-10.039481687644081</v>
       </c>
-      <c r="BL15" s="15">
+      <c r="BP15" s="15">
         <v>-11.793412341038501</v>
       </c>
-      <c r="BM15" s="15">
+      <c r="BQ15" s="15">
         <v>-0.40526259602979842</v>
       </c>
-      <c r="BN15" s="9">
+      <c r="BR15" s="9">
         <v>1306</v>
       </c>
-      <c r="BO15" s="9">
+      <c r="BS15" s="9">
         <v>5948</v>
       </c>
-      <c r="BP15" s="14">
+      <c r="BT15" s="14">
         <v>18928.817486129046</v>
       </c>
-      <c r="BQ15" s="15">
+      <c r="BU15" s="15">
         <v>16122.977203129045</v>
       </c>
-      <c r="BR15" s="15">
+      <c r="BV15" s="15">
         <v>2805.8402830000005</v>
       </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>44834</v>
       </c>
@@ -4013,208 +4209,220 @@
         <v>-39</v>
       </c>
       <c r="D16" s="9">
+        <v>44</v>
+      </c>
+      <c r="E16" s="10">
+        <v>-2</v>
+      </c>
+      <c r="F16" s="9">
         <v>1557</v>
       </c>
-      <c r="E16" s="10">
+      <c r="G16" s="10">
         <v>-70</v>
       </c>
-      <c r="F16" s="9">
+      <c r="H16" s="9">
+        <v>649</v>
+      </c>
+      <c r="I16" s="10">
+        <v>-15</v>
+      </c>
+      <c r="J16" s="9">
         <v>2036</v>
       </c>
-      <c r="G16" s="10">
+      <c r="K16" s="10">
         <v>-57</v>
       </c>
-      <c r="H16" s="12">
+      <c r="L16" s="12">
         <v>14644503.030829966</v>
       </c>
-      <c r="I16" s="13">
+      <c r="M16" s="13">
         <v>3231.999310124671</v>
       </c>
-      <c r="J16" s="13">
+      <c r="N16" s="13">
         <v>3128.9164066030753</v>
       </c>
-      <c r="K16" s="13">
+      <c r="O16" s="13">
         <v>14638142.115113236</v>
       </c>
-      <c r="L16" s="12">
+      <c r="P16" s="12">
         <v>20841280.309562065</v>
       </c>
-      <c r="M16" s="13">
+      <c r="Q16" s="13">
         <v>35058.837576648039</v>
       </c>
-      <c r="N16" s="13">
+      <c r="R16" s="13">
         <v>24468.071026397858</v>
       </c>
-      <c r="O16" s="13">
+      <c r="S16" s="13">
         <v>20781753.400959019</v>
       </c>
-      <c r="P16" s="13">
+      <c r="T16" s="13">
         <v>14186032.309562067</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="U16" s="12">
         <v>19718101.496208899</v>
       </c>
-      <c r="R16" s="13">
+      <c r="V16" s="13">
         <v>28750.797639506589</v>
       </c>
-      <c r="S16" s="13">
+      <c r="W16" s="13">
         <v>19360.116449790483</v>
       </c>
-      <c r="T16" s="13">
+      <c r="X16" s="13">
         <v>19669990.582119599</v>
       </c>
-      <c r="U16" s="13">
+      <c r="Y16" s="13">
         <v>13383829.309562067</v>
       </c>
-      <c r="V16" s="14">
-        <v>100</v>
-      </c>
-      <c r="W16" s="15">
+      <c r="Z16" s="14">
+        <v>100</v>
+      </c>
+      <c r="AA16" s="15">
         <v>9.4652548469598585</v>
       </c>
-      <c r="X16" s="15">
+      <c r="AB16" s="15">
         <v>9.353449480390891</v>
       </c>
-      <c r="Y16" s="15">
+      <c r="AC16" s="15">
         <v>81.181295672649185</v>
       </c>
-      <c r="Z16" s="15">
+      <c r="AD16" s="15">
         <v>42.727999152308364</v>
       </c>
-      <c r="AA16" s="14">
+      <c r="AE16" s="14">
         <v>5.1389465359242825</v>
       </c>
-      <c r="AB16" s="15">
+      <c r="AF16" s="15">
         <v>1.3589764591828368</v>
       </c>
-      <c r="AC16" s="15">
+      <c r="AG16" s="15">
         <v>1.1204665508246947</v>
       </c>
-      <c r="AD16" s="15">
+      <c r="AH16" s="15">
         <v>6.0859537201650493</v>
       </c>
-      <c r="AE16" s="15">
+      <c r="AI16" s="15">
         <v>13.477727257034333</v>
       </c>
-      <c r="AF16" s="14">
+      <c r="AJ16" s="14">
         <v>316305.78778956714</v>
       </c>
-      <c r="AG16" s="14">
+      <c r="AK16" s="14">
         <v>202922.35593178379</v>
       </c>
-      <c r="AH16" s="16">
+      <c r="AL16" s="16">
         <v>67486.872652880586</v>
       </c>
-      <c r="AI16" s="14">
+      <c r="AM16" s="14">
         <v>12364.711714947953</v>
       </c>
-      <c r="AJ16" s="14">
+      <c r="AN16" s="14">
         <v>214912.21480417426</v>
       </c>
-      <c r="AK16" s="17">
+      <c r="AO16" s="17">
         <v>6429.5754305499022</v>
       </c>
-      <c r="AL16" s="17">
+      <c r="AP16" s="17">
         <v>7627.6604303997974</v>
       </c>
-      <c r="AM16" s="17">
+      <c r="AQ16" s="17">
         <v>200854.97894322471</v>
       </c>
-      <c r="AN16" s="14">
-        <v>100</v>
-      </c>
-      <c r="AO16" s="17">
+      <c r="AR16" s="14">
+        <v>100</v>
+      </c>
+      <c r="AS16" s="17">
         <v>2.9917217299204997</v>
       </c>
-      <c r="AP16" s="17">
+      <c r="AT16" s="17">
         <v>3.5491981865014242</v>
       </c>
-      <c r="AQ16" s="17">
+      <c r="AU16" s="17">
         <v>93.459080083578144</v>
       </c>
-      <c r="AR16" s="17">
+      <c r="AV16" s="17">
         <v>65.139953031760285</v>
       </c>
-      <c r="AS16" s="14">
+      <c r="AW16" s="14">
         <v>25.421528655517967</v>
       </c>
-      <c r="AT16" s="17">
+      <c r="AX16" s="17">
         <v>-28.162427013324841</v>
       </c>
-      <c r="AU16" s="17">
+      <c r="AY16" s="17">
         <v>-22.271788765184407</v>
       </c>
-      <c r="AV16" s="17">
+      <c r="AZ16" s="17">
         <v>31.631766380148708</v>
       </c>
-      <c r="AW16" s="17">
+      <c r="BA16" s="17">
         <v>25.940012555953661</v>
       </c>
-      <c r="AX16" s="14">
+      <c r="BB16" s="14">
         <v>14.675282210105445</v>
       </c>
-      <c r="AY16" s="17">
+      <c r="BC16" s="17">
         <v>1989.34925833938</v>
       </c>
-      <c r="AZ16" s="17">
+      <c r="BD16" s="17">
         <v>2437.7961694031987</v>
       </c>
-      <c r="BA16" s="17">
+      <c r="BE16" s="17">
         <v>13.721343689910675</v>
       </c>
-      <c r="BB16" s="17">
+      <c r="BF16" s="17">
         <v>12.144716642672574</v>
       </c>
-      <c r="BC16" s="14">
+      <c r="BG16" s="14">
         <v>172359.56777347051</v>
       </c>
-      <c r="BD16" s="18">
+      <c r="BH16" s="18">
         <v>118.2712817699142</v>
       </c>
-      <c r="BE16" s="14">
+      <c r="BI16" s="14">
         <v>50692.00562793987</v>
       </c>
-      <c r="BF16" s="14">
+      <c r="BJ16" s="14">
         <v>543.98111811249646</v>
       </c>
-      <c r="BG16" s="14">
+      <c r="BK16" s="14">
         <v>3684.8090850557046</v>
       </c>
-      <c r="BH16" s="14">
-        <v>100</v>
-      </c>
-      <c r="BI16" s="15">
+      <c r="BL16" s="14">
+        <v>100</v>
+      </c>
+      <c r="BM16" s="15">
         <v>82.82118849563453</v>
       </c>
-      <c r="BJ16" s="15">
+      <c r="BN16" s="15">
         <v>17.17881150436547</v>
       </c>
-      <c r="BK16" s="14">
+      <c r="BO16" s="14">
         <v>-1.1819026069610272</v>
       </c>
-      <c r="BL16" s="15">
+      <c r="BP16" s="15">
         <v>-1.3344537495910691</v>
       </c>
-      <c r="BM16" s="15">
+      <c r="BQ16" s="15">
         <v>-0.43976541698432792</v>
       </c>
-      <c r="BN16" s="9">
+      <c r="BR16" s="9">
         <v>1583.9559295747169</v>
       </c>
-      <c r="BO16" s="9">
+      <c r="BS16" s="9">
         <v>5665</v>
       </c>
-      <c r="BP16" s="14">
+      <c r="BT16" s="14">
         <v>26550.261888585912</v>
       </c>
-      <c r="BQ16" s="15">
+      <c r="BU16" s="15">
         <v>23151.629587585914</v>
       </c>
-      <c r="BR16" s="15">
+      <c r="BV16" s="15">
         <v>3398.6323009999987</v>
       </c>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>44926</v>
       </c>
@@ -4225,208 +4433,232 @@
         <v>-58</v>
       </c>
       <c r="D17" s="9">
+        <v>44</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
         <v>1517</v>
       </c>
-      <c r="E17" s="10">
+      <c r="G17" s="10">
         <v>-40</v>
       </c>
-      <c r="F17" s="9">
+      <c r="H17" s="9">
+        <v>638</v>
+      </c>
+      <c r="I17" s="10">
+        <v>-11</v>
+      </c>
+      <c r="J17" s="9">
         <v>1980</v>
       </c>
-      <c r="G17" s="10">
+      <c r="K17" s="10">
         <v>-56</v>
       </c>
-      <c r="H17" s="12">
+      <c r="L17" s="12">
         <v>14492465.969170034</v>
       </c>
-      <c r="I17" s="13">
+      <c r="M17" s="13">
         <v>16891.761883905179</v>
       </c>
-      <c r="J17" s="13">
+      <c r="N17" s="13">
         <v>11449.531354590956</v>
       </c>
-      <c r="K17" s="13">
+      <c r="O17" s="13">
         <v>14464124.675931543</v>
       </c>
-      <c r="L17" s="12">
+      <c r="P17" s="12">
         <v>20891499</v>
       </c>
-      <c r="M17" s="13">
+      <c r="Q17" s="13">
         <v>39824</v>
       </c>
-      <c r="N17" s="13">
+      <c r="R17" s="13">
         <v>25048</v>
       </c>
-      <c r="O17" s="13">
+      <c r="S17" s="13">
         <v>20826627</v>
       </c>
-      <c r="P17" s="13">
+      <c r="T17" s="13">
         <v>14678421</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="U17" s="12">
         <v>19736820</v>
       </c>
-      <c r="R17" s="13">
+      <c r="V17" s="13">
         <v>30217</v>
       </c>
-      <c r="S17" s="13">
+      <c r="W17" s="13">
         <v>18846</v>
       </c>
-      <c r="T17" s="13">
+      <c r="X17" s="13">
         <v>19687757</v>
       </c>
-      <c r="U17" s="13">
+      <c r="Y17" s="13">
         <v>13835394</v>
       </c>
-      <c r="V17" s="14">
-        <v>100</v>
-      </c>
-      <c r="W17" s="15">
+      <c r="Z17" s="14">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="15">
         <v>10.518816114974733</v>
       </c>
-      <c r="X17" s="15">
+      <c r="AB17" s="15">
         <v>9.6257427078966931</v>
       </c>
-      <c r="Y17" s="15">
+      <c r="AC17" s="15">
         <v>79.855441176854242</v>
       </c>
-      <c r="Z17" s="15">
+      <c r="AD17" s="15">
         <v>45.770320667945207</v>
       </c>
-      <c r="AA17" s="14">
+      <c r="AE17" s="14">
         <v>4.9515832111635127E-2</v>
       </c>
-      <c r="AB17" s="15">
+      <c r="AF17" s="15">
         <v>11.185855684409418</v>
       </c>
-      <c r="AC17" s="15">
+      <c r="AG17" s="15">
         <v>2.9621103389223968</v>
       </c>
-      <c r="AD17" s="15">
+      <c r="AH17" s="15">
         <v>-1.5844948013599924</v>
       </c>
-      <c r="AE17" s="15">
+      <c r="AI17" s="15">
         <v>7.1732473590684132</v>
       </c>
-      <c r="AF17" s="14">
+      <c r="AJ17" s="14">
         <v>308142.79689213581</v>
       </c>
-      <c r="AG17" s="14">
+      <c r="AK17" s="14">
         <v>210092.3490509663</v>
       </c>
-      <c r="AH17" s="16">
+      <c r="AL17" s="16">
         <v>127641.90994536233</v>
       </c>
-      <c r="AI17" s="14">
+      <c r="AM17" s="14">
         <v>14346.54674931296</v>
       </c>
-      <c r="AJ17" s="14">
+      <c r="AN17" s="14">
         <v>210054.59600282536</v>
       </c>
-      <c r="AK17" s="17">
+      <c r="AO17" s="17">
         <v>15368.691617729177</v>
       </c>
-      <c r="AL17" s="17">
+      <c r="AP17" s="17">
         <v>10922.755461015051</v>
       </c>
-      <c r="AM17" s="17">
+      <c r="AQ17" s="17">
         <v>183763.14892408121</v>
       </c>
-      <c r="AN17" s="14">
-        <v>100</v>
-      </c>
-      <c r="AO17" s="17">
+      <c r="AR17" s="14">
+        <v>100</v>
+      </c>
+      <c r="AS17" s="17">
         <v>7.316522423304872</v>
       </c>
-      <c r="AP17" s="17">
+      <c r="AT17" s="17">
         <v>5.199960233609044</v>
       </c>
-      <c r="AQ17" s="17">
+      <c r="AU17" s="17">
         <v>87.48351734308612</v>
       </c>
-      <c r="AR17" s="17">
+      <c r="AV17" s="17">
         <v>71.494899864997521</v>
       </c>
-      <c r="AS17" s="14">
+      <c r="AW17" s="14">
         <v>-2.2602804618504835</v>
       </c>
-      <c r="AT17" s="17">
+      <c r="AX17" s="17">
         <v>139.03120483983091</v>
       </c>
-      <c r="AU17" s="17">
+      <c r="AY17" s="17">
         <v>43.199288440827253</v>
       </c>
-      <c r="AV17" s="17">
+      <c r="AZ17" s="17">
         <v>-8.5095376321115861</v>
       </c>
-      <c r="AW17" s="17">
+      <c r="BA17" s="17">
         <v>7.2750460505529579</v>
       </c>
-      <c r="AX17" s="14">
+      <c r="BB17" s="14">
         <v>14.494054804039324</v>
       </c>
-      <c r="AY17" s="17">
+      <c r="BC17" s="17">
         <v>909.83354627872097</v>
       </c>
-      <c r="AZ17" s="17">
+      <c r="BD17" s="17">
         <v>953.99148862414518</v>
       </c>
-      <c r="BA17" s="17">
+      <c r="BE17" s="17">
         <v>12.704754213703994</v>
       </c>
-      <c r="BB17" s="17">
+      <c r="BF17" s="17">
         <v>12.614773499621343</v>
       </c>
-      <c r="BC17" s="14">
+      <c r="BG17" s="14">
         <v>193959.94240020096</v>
       </c>
-      <c r="BD17" s="18">
+      <c r="BH17" s="18">
         <v>115.37988349011007</v>
       </c>
-      <c r="BE17" s="14">
+      <c r="BI17" s="14">
         <v>56317.322313225566</v>
       </c>
-      <c r="BF17" s="14">
+      <c r="BJ17" s="14">
         <v>418.62865607490789</v>
       </c>
-      <c r="BG17" s="14">
+      <c r="BK17" s="14">
         <v>6134.001822944294</v>
       </c>
-      <c r="BH17" s="14">
-        <v>100</v>
-      </c>
-      <c r="BI17" s="15">
+      <c r="BL17" s="14">
+        <v>100</v>
+      </c>
+      <c r="BM17" s="15">
         <v>80.64175462253796</v>
       </c>
-      <c r="BJ17" s="15">
+      <c r="BN17" s="15">
         <v>19.358245377462037</v>
       </c>
-      <c r="BK17" s="14">
+      <c r="BO17" s="14">
         <v>-13.23388802850738</v>
       </c>
-      <c r="BL17" s="15">
+      <c r="BP17" s="15">
         <v>-15.517132291266634</v>
       </c>
-      <c r="BM17" s="15">
+      <c r="BQ17" s="15">
         <v>-2.2260832441364453</v>
       </c>
-      <c r="BN17" s="9">
+      <c r="BR17" s="9">
         <v>1925</v>
       </c>
-      <c r="BO17" s="9">
+      <c r="BS17" s="9">
         <v>5366</v>
       </c>
-      <c r="BP17" s="14">
+      <c r="BT17" s="14">
         <v>24563.321231414102</v>
       </c>
-      <c r="BQ17" s="15">
+      <c r="BU17" s="15">
         <v>21728.896123414102</v>
       </c>
-      <c r="BR17" s="15">
+      <c r="BV17" s="15">
         <v>2834.4251080000008</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F6025C-FDB4-BE4E-B30A-6192550DD3C7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>